--- a/Immobilienliste.xlsx
+++ b/Immobilienliste.xlsx
@@ -478,37 +478,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Wolfgang Schweidler</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wohnung in St. Gallen</t>
+          <t>Top of St. Gallen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 94 m²</t>
+          <t>Wohnung • 6 Zi. • 170 m²</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 94 m²</t>
+          <t>Wohnung • 6 Zi. • 170 m²</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CHF 2’050.</t>
+          <t>CHF 3’230.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CHF 262</t>
+          <t>CHF 228</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Gesstreppe 1, 9011 St. Gallen</t>
+          <t>Reherstrasse 20c, 9016 St. Gallen</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -523,30 +523,34 @@
           <t>—</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Helle Altbau 3-Zimmerwohnung</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 53 m²</t>
+          <t>Wohnung • 3 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 53 m²</t>
+          <t>Wohnung • 3 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CHF 1’150.</t>
+          <t>CHF 1’300.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CHF 260</t>
+          <t>CHF 173</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9015 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -563,32 +567,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gepflegte schöne 3 1/2 Zimmer-Dachwohnung</t>
+          <t>Zentrale 3.5 Zi-Whg mit Balkon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 74 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 74 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CHF 1’490.</t>
+          <t>CHF 1’140.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CHF 242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -605,27 +609,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5 ½-Zimmer-Wohnung im Museumsquartier</t>
+          <t>2 in 1 Room for Rent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 135 m²</t>
+          <t>Wohnung • 5 Zi.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 135 m²</t>
+          <t>Wohnung • 5 Zi.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CHF 2’780.</t>
+          <t>CHF 605.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CHF 247</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -662,12 +666,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CHF 1’750.</t>
+          <t>CHF 1’875.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CHF 300</t>
+          <t>CHF 321</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -684,359 +688,359 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GEMAG Gebrüder Müller AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stilvolle Wohnung in Gehdistanz zum Stadtzentrum</t>
+          <t>Wohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 75 m²</t>
+          <t>Wohnung • 4.5 Zi. • 94 m²</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 75 m²</t>
+          <t>Wohnung • 4.5 Zi. • 94 m²</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CHF 1’485.</t>
+          <t>CHF 2’050.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CHF 238</t>
+          <t>CHF 262</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Gesstreppe 1, 9011 St. Gallen</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sproll &amp; Ramseyer AG</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2.5 Zimmerwohnung direkt an der Uni</t>
-        </is>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 49 m²</t>
+          <t>Wohnung • 2.5 Zi. • 53 m²</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 49 m²</t>
+          <t>Wohnung • 2.5 Zi. • 53 m²</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CHF 1’430.</t>
+          <t>CHF 1’150.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CHF 350</t>
+          <t>CHF 260</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Höhenweg 13, 9000 St. Gallen</t>
+          <t>9015 St. Gallen</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Salina ProImmo AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Charmantes Dach-Studio in Zentrumsnähe</t>
+          <t>gepflegte schöne 3 1/2 Zimmer-Dachwohnung</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Penthouse • 1.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 74 m²</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Penthouse • 1.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 74 m²</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CHF 670.</t>
+          <t>CHF 1’490.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 242</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dave</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liebhaberobjekt: Absolute Alleinlage</t>
+          <t>5 ½-Zimmer-Wohnung im Museumsquartier</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Einfamilienhaus • 3.5 Zi.</t>
+          <t>Wohnung • 5.5 Zi. • 135 m²</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Einfamilienhaus • 3.5 Zi.</t>
+          <t>Wohnung • 5.5 Zi. • 135 m²</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Auf Anfrage</t>
+          <t>CHF 2’780.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 247</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9011 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EIKO Verwaltungs AG</t>
+          <t>UMS AG - Untermietservice - Temporary Housing</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>helle 4.5-Zimmerwohnung an ruhiger Lage</t>
+          <t>3 ZI-WOHNUNG IN ST. GALLEN - ST. GEORGEN, MÖBLIERT, TEMPORÄR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Terrassenwohnung • 4.5 Zi. • 115 m²</t>
+          <t>Möblierte Wohnung • 3 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Terrassenwohnung • 4.5 Zi. • 115 m²</t>
+          <t>Möblierte Wohnung • 3 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CHF 2’730.</t>
+          <t>CHF 1’750.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CHF 285</t>
+          <t>CHF 300</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9011 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HN Verwaltungs GmbH</t>
+          <t>Sproll &amp; Ramseyer AG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zentral im Herzen von SG, renovierte Dachgeschosswohnung</t>
+          <t>2.5 Zimmerwohnung direkt an der Uni</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Penthouse • 2 Zi. • 35 m²</t>
+          <t>Wohnung • 2.5 Zi. • 49 m²</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Penthouse • 2 Zi. • 35 m²</t>
+          <t>Wohnung • 2.5 Zi. • 49 m²</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CHF 930.</t>
+          <t>CHF 1’430.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CHF 319</t>
+          <t>CHF 350</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Linsebühlstrasse 92, 9000 St. Gallen</t>
+          <t>Höhenweg 13, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aro immo ag</t>
+          <t>EIKO Verwaltungs AG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Moderne 5 ½-Zimmer Maisonette-Wohnung an ruhiger, zentraler Lage</t>
+          <t>helle 4.5-Zimmerwohnung an ruhiger Lage</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 170 m²</t>
+          <t>Terrassenwohnung • 4.5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 170 m²</t>
+          <t>Terrassenwohnung • 4.5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CHF 2’710.</t>
+          <t>CHF 2’730.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CHF 191</t>
+          <t>CHF 285</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9011 St. Gallen</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>HN Verwaltungs GmbH</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Zentral im Herzen von SG, renovierte Dachgeschosswohnung</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 45 m²</t>
+          <t>Penthouse • 2 Zi. • 35 m²</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 45 m²</t>
+          <t>Penthouse • 2 Zi. • 35 m²</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CHF 960.</t>
+          <t>CHF 930.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>CHF 256</t>
+          <t>CHF 319</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>Linsebühlstrasse 92, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Dave</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Grosse helle Wohnung in St. Gallen</t>
+          <t>Liebhaberobjekt: Absolute Alleinlage</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi.</t>
+          <t>Einfamilienhaus • 3.5 Zi.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi.</t>
+          <t>Einfamilienhaus • 3.5 Zi.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CHF 2’375.</t>
+          <t>Auf Anfrage</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1046,44 +1050,44 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9011 St. Gallen</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IDP Treuhand AG</t>
+          <t>aro immo ag</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>gemütliche Wohnung an ruhiger Lage</t>
+          <t>Moderne 5 ½-Zimmer Maisonette-Wohnung an ruhiger, zentraler Lage</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 40 m²</t>
+          <t>Wohnung • 5.5 Zi. • 170 m²</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 40 m²</t>
+          <t>Wohnung • 5.5 Zi. • 170 m²</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CHF 800.</t>
+          <t>CHF 2’710.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CHF 240</t>
+          <t>CHF 191</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1093,81 +1097,77 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Die Immo AG</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Grosszügige 2.5 Zimmer Neubau Wohnung St. Gallen - St. Fiden</t>
-        </is>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 68 m²</t>
+          <t>Wohnung • 2 Zi. • 45 m²</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 68 m²</t>
+          <t>Wohnung • 2 Zi. • 45 m²</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CHF 1’770.</t>
+          <t>CHF 960.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CHF 315</t>
+          <t>CHF 256</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>St.Galler Pensionskasse</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Die nette Kleinwohnung im Hochparterre</t>
+          <t>Grosse helle Wohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 49 m²</t>
+          <t>Wohnung • 5.5 Zi.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 49 m²</t>
+          <t>Wohnung • 5.5 Zi.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CHF 1’020.</t>
+          <t>CHF 2’375.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CHF 250</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1177,34 +1177,34 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>St.Galler Pensionskasse</t>
+          <t>IDP Treuhand AG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kleinwohnung an bester Lage</t>
+          <t>gemütliche Wohnung an ruhiger Lage</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 61 m²</t>
+          <t>Wohnung • 2 Zi. • 40 m²</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 61 m²</t>
+          <t>Wohnung • 2 Zi. • 40 m²</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CHF 1’220.</t>
+          <t>CHF 800.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1219,39 +1219,39 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Die Immo AG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3.5-Zimmer, 83 m², Dachgeschosswohnung</t>
+          <t>Grosszügige 2.5 Zimmer Neubau Wohnung St. Gallen - St. Fiden</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Penthouse • 3.5 Zi. • 83 m²</t>
+          <t>Wohnung • 2.5 Zi. • 68 m²</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Penthouse • 3.5 Zi. • 83 m²</t>
+          <t>Wohnung • 2.5 Zi. • 68 m²</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CHF 1’580.</t>
+          <t>CHF 1’770.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CHF 228</t>
+          <t>CHF 315</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1268,37 +1268,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Galli Immo-Service AG</t>
+          <t>St.Galler Pensionskasse</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ruhige Familien-Stadtwohnung in St. Fiden</t>
+          <t>Die nette Kleinwohnung im Hochparterre</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 80 m²</t>
+          <t>Wohnung • 2 Zi. • 49 m²</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 80 m²</t>
+          <t>Wohnung • 2 Zi. • 49 m²</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CHF 1’390.</t>
+          <t>CHF 1’020.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CHF 209</t>
+          <t>CHF 250</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Helvetiastrasse 33, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1310,121 +1310,121 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Liegenschaften Treuhand St.Gallen AG</t>
+          <t>St.Galler Pensionskasse</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>repräsentative 5,5 Zimmer-Wohnung am Fusse des Rosenberges</t>
+          <t>Kleinwohnung an bester Lage</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 151 m²</t>
+          <t>Wohnung • 3 Zi. • 61 m²</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 151 m²</t>
+          <t>Wohnung • 3 Zi. • 61 m²</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CHF 2’934.</t>
+          <t>CHF 1’220.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CHF 233</t>
+          <t>CHF 240</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Greifenstrasse 17, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Max Pfister Baubüro AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.5-Zimmerwohnung im 2. Stock</t>
+          <t>3.5-Zimmer, 83 m², Dachgeschosswohnung</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Penthouse • 3.5 Zi. • 83 m²</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Penthouse • 3.5 Zi. • 83 m²</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CHF 1’435.</t>
+          <t>CHF 1’580.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 228</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Reherstrasse 14a, 9016 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>VTAG Verwaltungs- und Treuhand AG</t>
+          <t>Galli Immo-Service AG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Schöne Erdgeschoss Wohnung mit Gartensitzplatz</t>
+          <t>Ruhige Familien-Stadtwohnung in St. Fiden</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 68 m²</t>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 68 m²</t>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CHF 1’490.</t>
+          <t>CHF 1’390.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CHF 263</t>
+          <t>CHF 209</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Helvetiastrasse 33, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1436,42 +1436,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Crowdhouse AG</t>
+          <t>Liegenschaften Treuhand St.Gallen AG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WOHNEN MIT AUSSICHT</t>
+          <t>repräsentative 1.5 Zimmer-Wohnung am Fusse des Rosenberges</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 51 m²</t>
+          <t>Wohnung • 5.5 Zi. • 151 m²</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 51 m²</t>
+          <t>Wohnung • 5.5 Zi. • 151 m²</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CHF 1’320.</t>
+          <t>CHF 2’934.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CHF 311</t>
+          <t>CHF 233</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Greifenstrasse 17, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>

--- a/Immobilienliste.xlsx
+++ b/Immobilienliste.xlsx
@@ -1472,34 +1472,30 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4 Zimmer Wohnung Stadtzentrum</t>
+          <t>Helle und grosse 4.5 Zimmer Wohnung mit Balkon</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CHF 1’480.</t>
+          <t>CHF 1’625.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 244</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1509,123 +1505,123 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BETTERHOMES (Schweiz) AG</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GEMÜTLICH AN ZENTRALER LAGE</t>
+          <t>4.5 Zimmer-Wohnung mit Balkon</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 52 m²</t>
+          <t>Wohnung • 4.5 Zi. • 96 m²</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 52 m²</t>
+          <t>Wohnung • 4.5 Zi. • 96 m²</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CHF 1’330.</t>
+          <t>CHF 1’590.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CHF 307</t>
+          <t>CHF 199</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Bernhardswiesstrasse 29, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Stadt und Natur - ein Widerspruch? Nicht an dieser Wohnlage</t>
+          <t>3,5 Zimmer-Wohnung mit Sitzplatz</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 78 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 78 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CHF 1’460.</t>
+          <t>CHF 1’430.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CHF 225</t>
+          <t>CHF 229</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Bernhardswiesstrasse 31, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>René L. Stein</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>St. Gallen - Ost - ruhige und sonnige Lage - Nähe Spital</t>
+          <t>St. Georgen, Parterre, Klusstr. 20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 134 m²</t>
+          <t>Wohnung • 3.5 Zi. • 71 m²</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 134 m²</t>
+          <t>Wohnung • 3.5 Zi. • 71 m²</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CHF 1’880.</t>
+          <t>CHF 1’735.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CHF 168</t>
+          <t>CHF 293</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1642,205 +1638,205 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>St.Galler Pensionskasse</t>
+          <t>Sproll &amp; Ramseyer AG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Im Museumsquartier - Nähe Stadttheater und Stadtzentrum</t>
+          <t>Moderne 1.5-Zimmer-Stadtwohnung im Osten der Stadt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 120 m²</t>
+          <t>Möblierte Wohnung • 1.5 Zi. • 32 m²</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 120 m²</t>
+          <t>Möblierte Wohnung • 1.5 Zi. • 32 m²</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CHF 2’330.</t>
+          <t>CHF 980.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CHF 233</t>
+          <t>CHF 368</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Immo10 AG</t>
+          <t>Sproll &amp; Ramseyer AG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3 Zimmer-Wohnung im 4.OG - nähe Stadtzentrum St.Gallen</t>
+          <t>1.5 Zimmerwohnung direkt an der Uni</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 70 m²</t>
+          <t>Wohnung • 1.5 Zi. • 36 m²</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 70 m²</t>
+          <t>Wohnung • 1.5 Zi. • 36 m²</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CHF 1’250.</t>
+          <t>CHF 980.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CHF 214</t>
+          <t>CHF 327</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Höhenweg 15, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Livit AG</t>
+          <t>Wincasa AG</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Condo/Apartment for rent, Langgasse 108/110, in St. Gallen, Switzerland</t>
+          <t>Zentrale Stadtwohnung sucht Sie!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 37 m²</t>
+          <t>Wohnung • 4 Zi. • 97 m²</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 37 m²</t>
+          <t>Wohnung • 4 Zi. • 97 m²</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CHF 870.</t>
+          <t>CHF 2’130.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CHF 282</t>
+          <t>CHF 264</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Goliathgasse 37, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>properstar.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Livit AG</t>
+          <t>VTAG Verwaltungs- und Treuhand AG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Condo/Apartment for rent, Leuenbergerstrasse 8, in St. Gallen, Switzerland</t>
+          <t>Bahnhof und Zentrums Nahe Wohnung</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 52 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 52 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CHF 1’160.</t>
+          <t>CHF 1’240.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CHF 268</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Leuenbergerstrasse 8, 9000 St. Gallen</t>
+          <t>Oberstrasse 25, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>properstar.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IBSG AG</t>
+          <t>Lach Financial Consulting GmbH</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>attraktive Stadtwohnung sucht Sie</t>
+          <t>Modernisierte 5,5 Zi. Maisonette-Wohnung</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 40 m²</t>
+          <t>Villa • 5.5 Zi. • 133 m²</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 40 m²</t>
+          <t>Villa • 5.5 Zi. • 133 m²</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CHF 1’110.</t>
+          <t>CHF 2’390.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CHF 333</t>
+          <t>CHF 216</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1852,79 +1848,79 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Helvetia Schweizerische Lebensversicherungsges. AG</t>
+          <t>UZON Immobilien AG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Condo/Apartment for rent, Meienbergstrasse 11, in St. Gallen, Switzerland</t>
+          <t>Schöne, helle 3.5 Zimmer Wohnung im Grünen</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Penthouse • 2.5 Zi. • 81 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Penthouse • 2.5 Zi. • 81 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CHF 2’366.</t>
+          <t>CHF 990.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CHF 351</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Im Hölzli 27, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>properstar.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>UZON Immobilien AG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wohnung in St. Gallen</t>
+          <t>Gemütliche 1,5 Dachzimmer Wohnung</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 80 m²</t>
+          <t>Dachwohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 80 m²</t>
+          <t>Dachwohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CHF 1’490.</t>
+          <t>CHF 750.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CHF 224</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>Sonneggstrasse 5, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1936,27 +1932,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>antosal69</t>
+          <t>UZON Immobilien AG</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Miete</t>
+          <t>Wohnen neben dem Silberturm</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CHF 990.</t>
+          <t>CHF 1’300.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1966,7 +1962,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Sonneggstrasse 5, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1978,32 +1974,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Miri</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nachmieter gesucht  4.5-Zimmer-Wohnung</t>
+          <t>Schöne 4-Zimmer-Altbauwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 102 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 102 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CHF 1’760.</t>
+          <t>CHF 1’720.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CHF 207</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2020,79 +2016,79 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q2meter GmbH</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Zentrumsnah Wohnen</t>
+          <t>4,5 Zimmer Wohnung mit hellem Wohnzimmer</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 79 m²</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 79 m²</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CHF 990.</t>
+          <t>CHF 1’515.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 230</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Rorschacher Strasse 233, 9016 St. Gallen</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VTAG Verwaltungs- und Treuhand AG</t>
+          <t>Auwiesen Immobilien AG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gemütliche Wohnung im Raume St.Gallen</t>
+          <t>Wohnen mit Stil und Komfort</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CHF 1’390.</t>
+          <t>CHF 1’650.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 215</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9015 St. Gallen</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2104,37 +2100,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Batus Immobilien AG</t>
+          <t>Crowdhouse AG</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Charmante sonnige und ruhige 3 1/2 Zimmerdachwohnung mit neuem Balkon</t>
+          <t>MODERNE WOHNUNG MIT BALKON SUCHT NACHMIETER</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dachwohnung • 3.5 Zi. • 106 m²</t>
+          <t>Wohnung • 3 Zi. • 53 m²</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dachwohnung • 3.5 Zi. • 106 m²</t>
+          <t>Wohnung • 3 Zi. • 53 m²</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CHF 1’950.</t>
+          <t>CHF 1’380.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CHF 221</t>
+          <t>CHF 312</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Rickenstrasse 20, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2146,37 +2142,37 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q2meter GmbH</t>
+          <t>Crowdhouse AG</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Moderne Stadtwohnung</t>
+          <t>ATTRAKTIVE KLEINWOHNUNG IN STADTNÄHE MIT WASCHTURM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 70 m²</t>
+          <t>Wohnung • 2 Zi. • 43 m²</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 70 m²</t>
+          <t>Wohnung • 2 Zi. • 43 m²</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CHF 1’490.</t>
+          <t>CHF 920.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CHF 255</t>
+          <t>CHF 257</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Rickenstrasse 20, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2188,32 +2184,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Dr. Kenig Liegenschaften</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>möbilierte lichtdurchflutete Maisonette Wohnung</t>
+          <t>MODERNE 2.5 ZIMMERWOHNUNG IN ST. GALLEN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 93 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 93 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CHF 1’795.</t>
+          <t>CHF 990.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CHF 232</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2230,37 +2226,33 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SGBC Business Center AG</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>4.5 room apartment super central on top of house</t>
-        </is>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Möblierte Wohnung • 4.5 Zi. • 70 m²</t>
+          <t>Wohnung • 1 Zi. • 22 m²</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Möblierte Wohnung • 4.5 Zi. • 70 m²</t>
+          <t>Wohnung • 1 Zi. • 22 m²</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CHF 1’900.</t>
+          <t>CHF 899.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CHF 326</t>
+          <t>CHF 490</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Unterstrasse 59, 9000 St. Gallen</t>
+          <t>Spisergasse 43, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2277,22 +2269,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Summer Oasis: Apartment Sublet (June-August)</t>
+          <t>Zentrale 1.5 Zimmerwohnung</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 1 Zi.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 1 Zi.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CHF 590.</t>
+          <t>CHF 780.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2302,7 +2294,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Redingstrasse 8, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2314,32 +2306,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Dafema AG</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Moderne Designer Wohnung</t>
+          <t>2-Zimmerwohnung im Krontal</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 22 m²</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 22 m²</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CHF 899.</t>
+          <t>CHF 940.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CHF 490</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2349,7 +2341,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2353,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Luxus auf kleinem Raum</t>
+          <t>Tapetenwechsel gewünscht?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 26 m²</t>
+          <t>Wohnung • 4.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 26 m²</t>
+          <t>Wohnung • 4.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CHF 915.</t>
+          <t>CHF 1’750.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CHF 422</t>
+          <t>CHF 210</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9012 St. Gallen</t>
+          <t>Oberstrasse 289, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2398,74 +2390,74 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Livit AG</t>
+          <t>Brüschweiler Immobilien AG</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Moderne Studenten--Singlewohnung</t>
+          <t>Grosszügige 6.5 Zimmer Wohnung in St.Gallen, sehr geeignet für ein Büro mit Wohnen</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 26 m²</t>
+          <t>Wohnung • 6.5 Zi.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 26 m²</t>
+          <t>Wohnung • 6.5 Zi.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CHF 870.</t>
+          <t>CHF 3’360.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CHF 402</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>9012 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>immobilier.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cosyhome ag</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>St. Gallen-charmantes Wohnen in der Altstadt!</t>
+          <t>2 Zimmer Wohnung Stadtzentrum</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 92 m²</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 92 m²</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CHF 2’290.</t>
+          <t>CHF 855.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CHF 299</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2475,7 +2467,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
@@ -13542,121 +13534,121 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>THOMA Immobilien Treuhand AG</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TOP Wohnung in der Nähe Kantonsspital</t>
+          <t>Befristetes Wohnen bis Ende Februar 2025</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 62 m²</t>
+          <t>Wohnung • 4.5 Zi. • 164 m²</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 62 m²</t>
+          <t>Wohnung • 4.5 Zi. • 164 m²</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>CHF 1’345.</t>
+          <t>CHF 2’010.</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>CHF 260</t>
+          <t>CHF 147</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Dufourstrasse 114, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Furter &amp; Furter AG</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Zentral gelegene Wohnung 1.5 ZW möbliert (auch ohne Möbel möglich)</t>
+          <t>Studentenzimmer in Jugendstilvilla zu vermieten (Zimmer 5)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 1 Zi. • 29 m²</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 1 Zi. • 29 m²</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>CHF 1’050.</t>
+          <t>CHF 880.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 364</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Langgasse 20, 9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>cosyhome ag</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Mittlerer Rosenberg - ruhige Lage Nähe UNI</t>
+          <t>St. Gallen-Burggraben</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi.</t>
+          <t>Wohnung • 2 Zi. • 25 m²</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi.</t>
+          <t>Wohnung • 2 Zi. • 25 m²</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CHF 1’790.</t>
+          <t>CHF 785.</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 377</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -13668,37 +13660,37 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>Crowdhouse AG</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Renovierte Jugendstilwohnung in St. Fiden - Nähe Kantonsspital</t>
+          <t>ATTRAKTIVE UND RENOVIERTE 2 ZIMMER WOHNUNG IN STADTNÄHE</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 2 Zi. • 43 m²</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 2 Zi. • 43 m²</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CHF 1’720.</t>
+          <t>CHF 1’280.</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 357</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Rickenstrasse 20, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -13710,37 +13702,37 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>HEV Verwaltungs AG</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Wohnung an ruhiger und sonniger Lage</t>
+          <t>Sanierte 3.5-Zi. Wohnung</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 58 m²</t>
+          <t>Wohnung • 3.5 Zi. • 60 m²</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 58 m²</t>
+          <t>Wohnung • 3.5 Zi. • 60 m²</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>CHF 1’050.</t>
+          <t>CHF 1’480.</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>CHF 217</t>
+          <t>CHF 296</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -13752,37 +13744,37 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>aro immo ag</t>
+          <t>HGT Immobilien-Treuhand AG</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Wohnen an zentraler Lage</t>
+          <t>Zentrale 1.5 Zimmer-Wohnung Nähe Uni/Bahnhof/Stadtzentrum</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 75 m²</t>
+          <t>Wohnung • 1.5 Zi. • 30 m²</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 75 m²</t>
+          <t>Wohnung • 1.5 Zi. • 30 m²</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>CHF 1’190.</t>
+          <t>CHF 870.</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>CHF 190</t>
+          <t>CHF 348</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -13794,158 +13786,158 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Dafema AG</t>
+          <t>ImmoLeu AG</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Stadtwohnung im modernen Neubau Wassergasse 53</t>
+          <t>Traumhafte 5-Zimmer-Wohnung am Rosenberg mit Panoramablick</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 132 m²</t>
+          <t>Wohnung • 5 Zi. • 150 m²</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 132 m²</t>
+          <t>Wohnung • 5 Zi. • 150 m²</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>CHF 3’260.</t>
+          <t>CHF 3’400.</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>CHF 296</t>
+          <t>CHF 272</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Wassergasse 53, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>IBSG AG</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Frisch renovierte sonnige, ruhige, gepflegte 3.5-Zi-Wohnung</t>
+          <t>MODERNE 1 Zimmer-Wohnung</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 64 m²</t>
+          <t>Wohnung • 1 Zi. • 23 m²</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 64 m²</t>
+          <t>Wohnung • 1 Zi. • 23 m²</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>CHF 1’290.</t>
+          <t>CHF 935.</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>CHF 242</t>
+          <t>CHF 488</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Brauerstrasse, 9016 St. Gallen</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Unihome GmbH</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>«Neubau Maisonettewohnung mit Garten an Top Lage!»</t>
+          <t>3.5 Zimmer Wohnung</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Duplex • 2.5 Zi. • 66 m²</t>
+          <t>Wohnung • 3.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Duplex • 2.5 Zi. • 66 m²</t>
+          <t>Wohnung • 3.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>CHF 1’795.</t>
+          <t>CHF 1’425.</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>CHF 326</t>
+          <t>CHF 214</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Seeblickstrasse 9, 9010 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>urbanhome.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Immo10 AG</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>3.5 zimmerwohnung an zentraler Lage in St. Gallen</t>
+          <t>1.5 Zimmer-Studentenwohnung in Stadtnähe</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 70 m²</t>
+          <t>Wohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 70 m²</t>
+          <t>Wohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>CHF 2’520.</t>
+          <t>CHF 831.</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>CHF 432</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -13955,44 +13947,44 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Ritter Immobilien-Treuhand AG</t>
+          <t>HN Verwaltungs GmbH</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Im Zentrum von St. Gallen!</t>
+          <t>Moderne 4.5 Maisonette/Duplex in St. Gallen</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 71 m²</t>
+          <t>Duplex • 4.5 Zi. • 94 m²</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 71 m²</t>
+          <t>Duplex • 4.5 Zi. • 94 m²</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>CHF 1’327.</t>
+          <t>CHF 2’150.</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>CHF 224</t>
+          <t>CHF 274</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Langgasse 41, 9008 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -14004,37 +13996,37 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>IT3 St. Gallen AG</t>
+          <t>Liegenschaften Treuhand St.Gallen AG</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Moderne 2.5-Zimmer-Wohnung</t>
+          <t>4,5 Zimmer-Wohnung 1.OG zu vermieten</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>CHF 1’360.</t>
+          <t>CHF 1’510.</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 191</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Feldlistrasse 17, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -14046,37 +14038,37 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>VERIT Immobilien AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Ideal für Studenten oder Wochenaufenthalter</t>
+          <t>Appartement à Saint-Gall</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 18 m²</t>
+          <t>Wohnung • 3.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 18 m²</t>
+          <t>Wohnung • 3.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>CHF 460.</t>
+          <t>CHF 1’350.</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>CHF 307</t>
+          <t>CHF 203</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Rosenbergweg 19, 9000 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -14088,42 +14080,42 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Homestay AG Schweiz</t>
+          <t>Martin Ilg</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>grosszügiges, möbliertes Studio mit eigenem Bad, Küche zur Allgemeinnutzung</t>
+          <t>Ab sofort, frisch renoviert - Hübsche 2.0 Zi Wohnung mit Sitzplatz</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Studio • 1 Zi.</t>
+          <t>Studio • 2 Zi. • 35 m²</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Studio • 1 Zi.</t>
+          <t>Studio • 2 Zi. • 35 m²</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CHF 980.</t>
+          <t>CHF 850.</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 291</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Teufenerstrasse 129, 9012 St. Gallen</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
@@ -14135,32 +14127,32 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Schöne helle 2 Zimmerwohnung</t>
+          <t>helle 4 Zimmerwohnung</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 41 m²</t>
+          <t>Wohnung • 4 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 41 m²</t>
+          <t>Wohnung • 4 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>CHF 1’050.</t>
+          <t>CHF 1’300.</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>CHF 307</t>
+          <t>CHF 170</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>Domänenstrasse 6, 9008 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -14177,27 +14169,27 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>3-zimmer wohnung</t>
+          <t>TOP Wohnung in der Nähe Kantonsspital</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 62 m²</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 62 m²</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>CHF 1’050.</t>
+          <t>CHF 1’345.</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 260</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -14214,37 +14206,37 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Gemütliche Altbauwohnung Wohnung in St. Gallen</t>
+          <t>Mittlerer Rosenberg - ruhige Lage Nähe UNI</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 69 m²</t>
+          <t>Wohnung • 5 Zi.</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 69 m²</t>
+          <t>Wohnung • 5 Zi.</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>CHF 1’245.</t>
+          <t>CHF 1’790.</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>CHF 217</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Domänenstrasse 2, 9008 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -14256,27 +14248,27 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>4.5 Zimmer Wohnung</t>
+          <t>Renovierte Jugendstilwohnung in St. Fiden - Nähe Kantonsspital</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>CHF 1’726.</t>
+          <t>CHF 1’720.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -14291,165 +14283,165 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>3 Zimmerwohnung</t>
+          <t>Wohnung an ruhiger und sonniger Lage</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 60 m²</t>
+          <t>Wohnung • 2 Zi. • 58 m²</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 60 m²</t>
+          <t>Wohnung • 2 Zi. • 58 m²</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>CHF 1’300.</t>
+          <t>CHF 1’050.</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>CHF 260</t>
+          <t>CHF 217</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Apfelberg ImmoService &amp; -Treuhand AG</t>
+          <t>aro immo ag</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Charmante 3.0 Zimmer-Wohnung mit Balkon</t>
+          <t>Wohnen an zentraler Lage</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>CHF 1’525.</t>
+          <t>CHF 1’190.</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 190</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>Waldaustrasse, 9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ATIG AG</t>
+          <t>Dafema AG</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Wohnung an Toplage mit schöner Aussicht auf Säntis und die Stadt</t>
+          <t>Stadtwohnung im modernen Neubau Wassergasse 53</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 132 m²</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 132 m²</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>CHF 2’900.</t>
+          <t>CHF 3’260.</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 296</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Wassergasse 53, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>cosyhome ag</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>St. Gallen-oberhalb der Altstadt</t>
+          <t>Frisch renovierte sonnige, ruhige, gepflegte 3.5-Zi-Wohnung</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 80 m²</t>
+          <t>Wohnung • 3.5 Zi. • 64 m²</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 80 m²</t>
+          <t>Wohnung • 3.5 Zi. • 64 m²</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>CHF 1’690.</t>
+          <t>CHF 1’290.</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>CHF 254</t>
+          <t>CHF 242</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -14459,49 +14451,49 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Apleona Schweiz AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>4- Zimmerwohnung an zentraler Lage, Wohngemeinschaften sind willkommen</t>
+          <t>«Neubau Maisonettewohnung mit Garten an Top Lage!»</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 88 m²</t>
+          <t>Duplex • 2.5 Zi. • 66 m²</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 88 m²</t>
+          <t>Duplex • 2.5 Zi. • 66 m²</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>CHF 1’650.</t>
+          <t>CHF 1’795.</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>CHF 225</t>
+          <t>CHF 326</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Langgasse 85, 9008 St. Gallen</t>
+          <t>Seeblickstrasse 9, 9010 St. Gallen</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>urbanhome.ch</t>
         </is>
       </c>
     </row>
@@ -14513,27 +14505,27 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Zentrale Wohnung mit super Aussicht</t>
+          <t>3.5 zimmerwohnung an zentraler Lage in St. Gallen</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi. • 111 m²</t>
+          <t>Wohnung • 3.5 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi. • 111 m²</t>
+          <t>Wohnung • 3.5 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>CHF 2’160.</t>
+          <t>CHF 2’520.</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>CHF 234</t>
+          <t>CHF 432</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -14543,7 +14535,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>

--- a/Immobilienliste.xlsx
+++ b/Immobilienliste.xlsx
@@ -478,79 +478,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R. Anderes AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herzige ganz neu renovierte 3.5-Zimmer-Dachwohnung</t>
+          <t>Renovierte Wohnung an der Gallusstrasse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Penthouse • 3.5 Zi. • 55 m²</t>
+          <t>Wohnung • 2 Zi. • 50 m²</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Penthouse • 3.5 Zi. • 55 m²</t>
+          <t>Wohnung • 2 Zi. • 50 m²</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CHF 1’190.</t>
+          <t>CHF 1’400.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CHF 260</t>
+          <t>CHF 336</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HGT Immobilien-Treuhand AG</t>
+          <t>Katholische Administration</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Schöne 4.5 Zimmer-Wohnung mit Balkon an bevorzugter Wohnlage</t>
+          <t>Einfache  Wohnung im Herzen der Altstadt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 105 m²</t>
+          <t>Wohnung • 2.5 Zi. • 57 m²</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 105 m²</t>
+          <t>Wohnung • 2.5 Zi. • 57 m²</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CHF 2’050.</t>
+          <t>CHF 980.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CHF 234</t>
+          <t>CHF 206</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9010 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,121 +562,121 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HGT Immobilien-Treuhand AG</t>
+          <t>Wincasa AG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Helle 3.5 Zimmer-Dachwohnung mit Balkon an bevorzugter Lage</t>
+          <t>Moderne Maisonette-Wohnung am Stadtrand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 94 m²</t>
+          <t>Duplex • 4.5 Zi. • 125 m²</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 94 m²</t>
+          <t>Duplex • 4.5 Zi. • 125 m²</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CHF 1’850.</t>
+          <t>CHF 2’130.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CHF 236</t>
+          <t>CHF 204</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9010 St. Gallen</t>
+          <t>9015 St. Gallen</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Wincasa AG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>«Moderne Studiowohnung mit Altbaucharme»</t>
+          <t>Mieten ohne Kaution! Perfekte Stadtwohnung in sehr ruhiger Lage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 28 m²</t>
+          <t>Duplex • 4.5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 28 m²</t>
+          <t>Duplex • 4.5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CHF 920.</t>
+          <t>CHF 1’954.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CHF 394</t>
+          <t>CHF 204</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Zürcher Strasse 204c, 9014 St. Gallen</t>
+          <t>Speicherstrasse 27, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>urbanhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>St.Galler Pensionskasse</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Erstbezug kernsanierte Dach-WHG mit Säntisblick</t>
+          <t>An familienfreundlicher Lage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Penthouse • 2 Zi. • 53 m²</t>
+          <t>Wohnung • 4.5 Zi. • 113 m²</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Penthouse • 2 Zi. • 53 m²</t>
+          <t>Wohnung • 4.5 Zi. • 113 m²</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CHF 990.</t>
+          <t>CHF 1’930.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CHF 224</t>
+          <t>CHF 205</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Zürcher Strasse 213, 9014 St. Gallen</t>
+          <t>Wolfganghof 17, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -693,237 +693,237 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dachwohnung in St. Gallen</t>
+          <t>4 1/2 Zi Gartenwohnung Jugendstil totalsaniert bei m Kantonspital</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dachwohnung • 2.5 Zi. • 65 m²</t>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dachwohnung • 2.5 Zi. • 65 m²</t>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CHF 1’050.</t>
+          <t>CHF 1’500.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CHF 194</t>
+          <t>CHF 225</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Scherzinger Hauswartungen GmbH</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Summer 2024 in St. Gallen</t>
+          <t>2.5 ZWHG am Rosenberg nähe Universität + Hauptbahnhof SG zu vermieten</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 60 m²</t>
+          <t>Wohnung • 2.5 Zi. • 46 m²</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 60 m²</t>
+          <t>Wohnung • 2.5 Zi. • 46 m²</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CHF 1’200.</t>
+          <t>CHF 1’250.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CHF 240</t>
+          <t>CHF 326</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ulmenstrasse 12, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gidaboll AG</t>
+          <t>Scherzinger Hauswartungen GmbH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Schöne 1.5 Zimmer Wohnung an ruhiger Lage zu vermieten!</t>
+          <t>2.0 ZWHG am Rosenberg nähe Universität + Hauptbahnhof SG zu vermieten</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 2 Zi. • 38 m²</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 2 Zi. • 38 m²</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CHF 850.</t>
+          <t>CHF 1’150.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 363</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Oberstrasse 200, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pernisch Verwaltung</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sanierte 2.5 Zimmerwohnung zu vermieten</t>
+          <t>3 Zimmer-Wohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 60 m²</t>
+          <t>Wohnung • 3 Zi. • 55 m²</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 60 m²</t>
+          <t>Wohnung • 3 Zi. • 55 m²</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CHF 1’600.</t>
+          <t>CHF 1’350.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CHF 320</t>
+          <t>CHF 295</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Multergasse 8, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PERA Immobilien - Schlauri Petra</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Schöne Altbauwohnung mit Flair</t>
+          <t>2-Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 3 Zi. • 65 m²</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 3 Zi. • 65 m²</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CHF 1’850.</t>
+          <t>CHF 1’120.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 207</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Wiesentalstrasse 6, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Properti AG</t>
+          <t>cosyhome ag</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Behagliche 2.5-Zimmer-Wohnung in zentraler Lage St. Gallens</t>
+          <t>St. Gallen-am unteren Rosenberg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 65 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 65 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CHF 1’370.</t>
+          <t>CHF 1’386.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CHF 253</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -933,170 +933,170 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Properti AG</t>
+          <t>Uzon Immobilien AG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gemütliche 3.5-Zimmer-Wohnung in St.Gallen</t>
+          <t>Gemütliche 3 Zimmer Wohnung</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 80 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 80 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CHF 1’250.</t>
+          <t>CHF 1’400.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CHF 188</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Sonneggstrasse 7, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gidaboll AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Schöne 4.5 Zi-Whg an ruhiger Lage zu vermieten!</t>
+          <t>Top Lage in der Innenstadt von St. Gallen</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 3 Zi. • 68 m²</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 3 Zi. • 68 m²</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CHF 1’400.</t>
+          <t>CHF 2’195.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 387</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Oberstrasse 200, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Helvetia Schweizerische Lebensversicherungsges. AG</t>
+          <t>BETTERHOMES (Schweiz) AG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Einzigartige Wohnung im Grünen</t>
+          <t>HELL MIT CHARMANTER AUSSICHT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Penthouse • 3.5 Zi. • 115 m²</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Penthouse • 3.5 Zi. • 115 m²</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CHF 2’195.</t>
+          <t>CHF 1’540.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CHF 229</t>
+          <t>CHF 195</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hugo Steiner AG</t>
+          <t>Stadt St. Gallen Liegenschaften Immobilienbewirtschaftung</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gediegene 4½-Zimmer-Wohnung mit Terrasse und Sitzplatz</t>
+          <t>Heimelige 3.5 Zimmer-Altbauwohnung</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 133 m²</t>
+          <t>Wohnung • 3 Zi. • 67 m²</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 133 m²</t>
+          <t>Wohnung • 3 Zi. • 67 m²</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CHF 3’200.</t>
+          <t>CHF 690.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CHF 289</t>
+          <t>CHF 124</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1108,42 +1108,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hugo Steiner AG</t>
+          <t>GEMAG Gebrüder Müller AG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Renovierte 2½-Zimmer-Dachwohnung am Rosenberg</t>
+          <t>Luxuriöse Singlewohnung oder Alterssitz an bester Lage!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 65 m²</t>
+          <t>Wohnung • 2.5 Zi. • 58 m²</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 65 m²</t>
+          <t>Wohnung • 2.5 Zi. • 58 m²</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CHF 1’570.</t>
+          <t>CHF 2’500.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CHF 290</t>
+          <t>CHF 517</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Guisanstrasse 93, 9010 St. Gallen</t>
+          <t>9010 St. Gallen</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
@@ -1155,69 +1155,69 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.5 Zimmer Wohnung in Stadtzentrum</t>
+          <t>Schön und zentral für 3 - 6 Wochen im Zeitraum 24.6.-10.8.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 2 Zi. • 50 m²</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 2 Zi. • 50 m²</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CHF 750.</t>
+          <t>CHF 800.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 192</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>IT3 St. Gallen AG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Schöne Wohnung</t>
+          <t>4.5 Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 90 m²</t>
+          <t>Wohnung • 4.5 Zi. • 94 m²</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 90 m²</t>
+          <t>Wohnung • 4.5 Zi. • 94 m²</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CHF 1’300.</t>
+          <t>CHF 2’290.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CHF 173</t>
+          <t>CHF 292</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1234,331 +1234,327 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Housing Anywhere</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Condo/Apartment for rent, Heinestrasse, in St. Gallen, Switzerland</t>
+          <t>4.5-Einfamilienhaus-Hälfte mit Garten und Garage</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wohnung • 28 m²</t>
+          <t>Doppel-Einfamilienhaus • 4.5 Zi. • 110 m²</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wohnung • 28 m²</t>
+          <t>Doppel-Einfamilienhaus • 4.5 Zi. • 110 m²</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EUR 998.</t>
+          <t>CHF 2’100.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EUR 428</t>
+          <t>CHF 229</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>properstar.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HEV Verwaltungs AG</t>
+          <t>Stadt St. Gallen Liegenschaften Immobilienbewirtschaftung</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Attraktive 4.5 Zimmer Wohnung im St. Fiden</t>
+          <t>2½-Zimmer-Wohnung im Grünen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CHF 2’150.</t>
+          <t>CHF 1’590.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 212</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Splügenstrasse 26, 9008 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Livit AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Condo/Apartment for rent, Schibistrasse 4, in St. Gallen, Switzerland</t>
+          <t>Erstbezug Neubauwohnung in Rotmonten</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 21 m²</t>
+          <t>Wohnung • 1.5 Zi. • 25 m²</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 21 m²</t>
+          <t>Wohnung • 1.5 Zi. • 25 m²</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CHF 610.</t>
+          <t>CHF 1’230.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CHF 349</t>
+          <t>CHF 590</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9010 St. Gallen</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>properstar.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>aro immo ag</t>
+          <t>Ali Merhouni</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Moderne 4 ½-Zimmer Maisonette-Wohnung an ruhiger, zentraler Lage</t>
+          <t>nachmiter gesucht</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 118 m²</t>
+          <t>Wohnung • 2.5 Zi. • 42 m²</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 118 m²</t>
+          <t>Wohnung • 2.5 Zi. • 42 m²</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CHF 2’330.</t>
+          <t>CHF 840.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CHF 237</t>
+          <t>CHF 240</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Helvetia Schweizerische Lebensversicherungsges. AG</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Wohnqualität erleben</t>
-        </is>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 93 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 93 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CHF 1’655.</t>
+          <t>CHF 1’480.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CHF 214</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IT3 St. Gallen AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.5 Zimmerwohnung in St. Gallen</t>
+          <t>1-Zimmer-Wohung in St. Gallen mieten</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 69 m²</t>
+          <t>Wohnung • 1 Zi. • 22 m²</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 69 m²</t>
+          <t>Wohnung • 1 Zi. • 22 m²</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CHF 1’750.</t>
+          <t>CHF 899.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CHF 304</t>
+          <t>CHF 490</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Spisergasse 43, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Pensionskasse Stadt St.Gallen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mieten ohne Kaution! Perfekte Stadtwohnung in sehr ruhiger Lage</t>
+          <t>modernes Wohnen am Stadtrand</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Duplex • 4.5 Zi. • 115 m²</t>
+          <t>Wohnung • 4.5 Zi. • 91 m²</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Duplex • 4.5 Zi. • 115 m²</t>
+          <t>Wohnung • 4.5 Zi. • 91 m²</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CHF 1’954.</t>
+          <t>CHF 1’863.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CHF 204</t>
+          <t>CHF 246</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Speicherstrasse 27, 9000 St. Gallen</t>
+          <t>Tablatstrasse 30a, 9016 St. Gallen</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>St.Galler Pensionskasse</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>An familienfreundlicher Lage</t>
+          <t>Zentrale 1.5-Zimmer Wohnung mit Gartensitzplatz</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 113 m²</t>
+          <t>Wohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 113 m²</t>
+          <t>Wohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CHF 1’930.</t>
+          <t>CHF 770.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CHF 205</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>Felsenstrasse 107, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1570,32 +1566,32 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Apfelberg ImmoService &amp; -Treuhand AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Neuwertige Wohnung am beliebten Rosenberg</t>
+          <t>Stilvoll Möblierte 1-Zimmerwohnung an bester Lage im Zentrum der Stadt St.Gallen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 117 m²</t>
+          <t>Wohnung • 1 Zi. • 25 m²</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 117 m²</t>
+          <t>Wohnung • 1 Zi. • 25 m²</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CHF 2’490.</t>
+          <t>CHF 899.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CHF 255</t>
+          <t>CHF 432</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1612,74 +1608,74 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Dafema AG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4 1/2 Zi Gartenwohnung Jugendstil totalsaniert bei m Kantonspital</t>
+          <t>Helle 4.5 Zimmerwohnung mit Aussicht</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 80 m²</t>
+          <t>Wohnung • 4.5 Zi. • 126 m²</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 80 m²</t>
+          <t>Wohnung • 4.5 Zi. • 126 m²</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CHF 1’500.</t>
+          <t>CHF 2’350.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CHF 225</t>
+          <t>CHF 224</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Scherzinger Hauswartungen GmbH</t>
+          <t>Projekt Interim</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2.5 ZWHG am Rosenberg nähe Universität + Hauptbahnhof SG zu vermieten</t>
+          <t>Befristete Atelierplätze für CHF 6.90/m2/Monat</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 46 m²</t>
+          <t>Studio</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 46 m²</t>
+          <t>Studio</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CHF 1’250.</t>
+          <t>CHF 69.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CHF 326</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1696,37 +1692,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Scherzinger Hauswartungen GmbH</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.0 ZWHG am Rosenberg nähe Universität + Hauptbahnhof SG zu vermieten</t>
+          <t>2 Zimmer Tiny House</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 38 m²</t>
+          <t>Wohnung • 2 Zi. • 45 m²</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 38 m²</t>
+          <t>Wohnung • 2 Zi. • 45 m²</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CHF 1’150.</t>
+          <t>CHF 1’210.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CHF 363</t>
+          <t>CHF 323</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1743,27 +1739,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3 Zimmer-Wohnung in St. Gallen</t>
+          <t>Studio in der St.Galler Altstadt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 55 m²</t>
+          <t>Wohnung • 1 Zi. • 22 m²</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 55 m²</t>
+          <t>Wohnung • 1 Zi. • 22 m²</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CHF 1’350.</t>
+          <t>CHF 665.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CHF 295</t>
+          <t>CHF 363</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1773,76 +1769,76 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>IBSG AG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2-Zimmerwohnung in St. Gallen</t>
+          <t>charmantes Wohnen in Stadtnähe</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 65 m²</t>
+          <t>Wohnung • 4.5 Zi. • 111 m²</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 65 m²</t>
+          <t>Wohnung • 4.5 Zi. • 111 m²</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CHF 1’120.</t>
+          <t>CHF 1’896.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CHF 207</t>
+          <t>CHF 205</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Wiesentalstrasse 6, 9000 St. Gallen</t>
+          <t>Burgstrasse 91d, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cosyhome ag</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>St. Gallen-am unteren Rosenberg</t>
+          <t>Wohnung in St. Gallen von Juli 2024: 3 Zimmer - 1 Bad</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CHF 1’386.</t>
+          <t>CHF 1’560.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1857,44 +1853,44 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Uzon Immobilien AG</t>
+          <t>Crowdhouse AG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gemütliche 3 Zimmer Wohnung</t>
+          <t>MODERNE WOHNUNG AN TOP-LAGE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 64 m²</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 64 m²</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CHF 1’400.</t>
+          <t>CHF 1’450.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 272</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sonneggstrasse 7, 9000 St. Gallen</t>
+          <t>Langgasse 7, 9008 St. Gallen</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1906,32 +1902,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Intercity Bewirtschaftung AG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Top Lage in der Innenstadt von St. Gallen</t>
+          <t>Ideale für Studenten oder Wochenaufenthalter</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 68 m²</t>
+          <t>Wohnung • 1 Zi. • 29 m²</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 68 m²</t>
+          <t>Wohnung • 1 Zi. • 29 m²</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CHF 2’195.</t>
+          <t>CHF 780.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CHF 387</t>
+          <t>CHF 323</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1941,49 +1937,49 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BETTERHOMES (Schweiz) AG</t>
+          <t>VID AG Verwaltungen - Immobilien Dienstleistungen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HELL MIT CHARMANTER AUSSICHT</t>
+          <t>Wohnen mit wunderschöner Aussicht über die Stadt St. Gallen</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 95 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 95 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CHF 1’540.</t>
+          <t>CHF 1’380.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CHF 195</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
@@ -1995,27 +1991,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Heimelige 3.5 Zimmer-Altbauwohnung</t>
+          <t>Grosszügige 4 Zimmer-Wohnung - Nähe Zentrum</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 67 m²</t>
+          <t>Wohnung • 4 Zi. • 132 m²</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 67 m²</t>
+          <t>Wohnung • 4 Zi. • 132 m²</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CHF 690.</t>
+          <t>CHF 1’620.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CHF 124</t>
+          <t>CHF 147</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2032,37 +2028,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GEMAG Gebrüder Müller AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Luxuriöse Singlewohnung oder Alterssitz an bester Lage!</t>
+          <t>Zentrumsnahe 1 Zimmerwohnung zu vermieten</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 58 m²</t>
+          <t>Wohnung • 1 Zi. • 28 m²</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 58 m²</t>
+          <t>Wohnung • 1 Zi. • 28 m²</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CHF 2’500.</t>
+          <t>CHF 690.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CHF 517</t>
+          <t>CHF 296</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9010 St. Gallen</t>
+          <t>Linsebühlstrasse 74, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2079,116 +2075,116 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Schön und zentral für 3 - 6 Wochen im Zeitraum 24.6.-10.8.</t>
+          <t>Wohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 50 m²</t>
+          <t>Wohnung • 2.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 50 m²</t>
+          <t>Wohnung • 2.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CHF 800.</t>
+          <t>CHF 990.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>CHF 192</t>
+          <t>CHF 132</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IT3 St. Gallen AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.5 Zimmerwohnung in St. Gallen</t>
+          <t>3.5 ZIMMER - WOHNUNG MIT TERRASSE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 94 m²</t>
+          <t>Wohnung • 3.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 94 m²</t>
+          <t>Wohnung • 3.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CHF 2’290.</t>
+          <t>CHF 2’520.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CHF 292</t>
+          <t>CHF 336</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Berneggstrasse 37, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>GOLDINGER Immobilien AG</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4.5-Einfamilienhaus-Hälfte mit Garten und Garage</t>
+          <t>STILLVOLL &amp; ZENTRAL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Doppel-Einfamilienhaus • 4.5 Zi. • 110 m²</t>
+          <t>Wohnung • 1.5 Zi. • 62 m²</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Doppel-Einfamilienhaus • 4.5 Zi. • 110 m²</t>
+          <t>Wohnung • 1.5 Zi. • 62 m²</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CHF 2’100.</t>
+          <t>CHF 1’240.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CHF 229</t>
+          <t>CHF 240</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Langgasse 31, 9008 St. Gallen</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2200,126 +2196,126 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Stadt St. Gallen Liegenschaften Immobilienbewirtschaftung</t>
+          <t>Hinder Liegenschaften AG</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2½-Zimmer-Wohnung im Grünen</t>
+          <t>charmante 2.5 Zimmer-Dachwohnung an zentraler Lage</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 90 m²</t>
+          <t>Wohnung • 2.5 Zi. • 59 m²</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 90 m²</t>
+          <t>Wohnung • 2.5 Zi. • 59 m²</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CHF 1’590.</t>
+          <t>CHF 1’300.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CHF 212</t>
+          <t>CHF 264</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Brüschweiler Immobilien AG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Erstbezug Neubauwohnung in Rotmonten</t>
+          <t>Charmante 3.5 Zimmerwohnung mit Balkon in St.Gallen!</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 25 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 25 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CHF 1’230.</t>
+          <t>CHF 1’340.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CHF 590</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9010 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ali Merhouni</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>nachmiter gesucht</t>
+          <t>Room in Shared Flat - St.Gallen</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 42 m²</t>
+          <t>Wohnung • 1 Zi.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 42 m²</t>
+          <t>Wohnung • 1 Zi.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CHF 840.</t>
+          <t>CHF 630.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CHF 240</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
@@ -2329,25 +2325,29 @@
           <t>—</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Rent a 2 1/2 room apartment in St. Gallen</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CHF 1’480.</t>
+          <t>CHF 1’375.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 220</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2364,116 +2364,116 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Ravaioli REAL ESTATE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wunderschöne voll möblierte Maisonette-Wohnung in St. Gallen, Metzgergasse 14 (all-inclusive)</t>
+          <t>Charmante Wohnung mitten in der Altstadt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 72 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 72 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CHF 1’299.</t>
+          <t>CHF 1’350.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CHF 217</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Metzgergasse 14, 9000 St. Gallen</t>
+          <t>Webergasse 14, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Ollech - Immobilien</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1-Zimmer-Wohung in St. Gallen mieten</t>
+          <t>Attraktive 4.5 Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 22 m²</t>
+          <t>Wohnung • 4.5 Zi.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 22 m²</t>
+          <t>Wohnung • 4.5 Zi.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CHF 899.</t>
+          <t>CHF 1’510.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CHF 490</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Spisergasse 43, 9000 St. Gallen</t>
+          <t>Waldaustrasse 17, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pensionskasse Stadt St.Gallen</t>
+          <t>Livit AG Real Estate Management</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>modernes Wohnen am Stadtrand</t>
+          <t>Ideal für Jung und Alt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 91 m²</t>
+          <t>Wohnung • 3.5 Zi. • 76 m²</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 91 m²</t>
+          <t>Wohnung • 3.5 Zi. • 76 m²</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CHF 1’863.</t>
+          <t>CHF 1’680.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CHF 246</t>
+          <t>CHF 265</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2490,42 +2490,42 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Immo Generation</t>
+          <t>Stadt St. Gallen Liegenschaften Immobilienbewirtschaftung</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WUNDERSCHÖNE ALTBAUWOHNUNG MITTEN IM ZENTRUM AN BESTER LAGE</t>
+          <t>Originelle 4.5-Zimmer-Maisonette-Wohnung mit Charme</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 99 m²</t>
+          <t>Wohnung • 4.5 Zi. • 105 m²</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 99 m²</t>
+          <t>Wohnung • 4.5 Zi. • 105 m²</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CHF 1’550.</t>
+          <t>CHF 1’590.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CHF 188</t>
+          <t>CHF 182</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9015 St. Gallen</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
@@ -2710,12 +2710,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 96 m²</t>
+          <t>Wohnung • 3 Zi. • 96 m²</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 96 m²</t>
+          <t>Wohnung • 3 Zi. • 96 m²</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2784,32 +2784,32 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Probauteam AG St. Gallen</t>
+          <t>Helvetia Schweizerische Lebensversicherungsges. AG</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2 1/2 Zimmer-Wohnung SG Feldliquartier</t>
+          <t>Sonnig, zentral und frisch renoviert - Willkommen im Konkordiahof</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 47 m²</t>
+          <t>Wohnung • 5.5 Zi.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 47 m²</t>
+          <t>Wohnung • 5.5 Zi.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CHF 1’150.</t>
+          <t>Auf Anfrage</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CHF 294</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2819,34 +2819,34 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Helvetia Schweizerische Lebensversicherungsges. AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sonnig, zentral und frisch renoviert - Willkommen im Konkordiahof</t>
+          <t>Befristet und möbliert bis im Sommer 2025, charmante Wohnung</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Auf Anfrage</t>
+          <t>CHF 1’400.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2861,39 +2861,39 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>HEV Verwaltungs AG</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Befristet und möbliert bis im Sommer 2025, charmante Wohnung</t>
+          <t>Charmante 4.5-Zimmer-Wohnung</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CHF 1’400.</t>
+          <t>CHF 2’150.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 280</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2903,44 +2903,44 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HEV Verwaltungs AG</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Charmante 4.5-Zimmer-Wohnung</t>
+          <t>Zentrale und ruhige Wohnlage nähe Stadtzentrum</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 92 m²</t>
+          <t>Wohnung • 2.5 Zi. • 51 m²</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 92 m²</t>
+          <t>Wohnung • 2.5 Zi. • 51 m²</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>CHF 2’150.</t>
+          <t>CHF 1’090.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CHF 280</t>
+          <t>CHF 256</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Tschudistrasse 39, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2952,331 +2952,331 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>Helvetia Schweizerische Lebensversicherungsges. AG</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Zentrale und ruhige Wohnlage nähe Stadtzentrum</t>
+          <t>Licht - Luft - Loft  *viel Raum zum Leben*</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 51 m²</t>
+          <t>Loft • 2.5 Zi. • 73 m²</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 51 m²</t>
+          <t>Loft • 2.5 Zi. • 73 m²</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CHF 1’090.</t>
+          <t>CHF 1’380.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CHF 256</t>
+          <t>CHF 227</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Tschudistrasse 39, 9000 St. Gallen</t>
+          <t>Zilweg 13, 9016 St. Gallen</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Helvetia Schweizerische Lebensversicherungsges. AG</t>
+          <t>Immo10 AG</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Licht - Luft - Loft  *viel Raum zum Leben*</t>
+          <t>ZUHAUSE im GLÜCK</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Loft • 2.5 Zi. • 73 m²</t>
+          <t>Wohnung • 5 Zi.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Loft • 2.5 Zi. • 73 m²</t>
+          <t>Wohnung • 5 Zi.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CHF 1’380.</t>
+          <t>CHF 1’515.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CHF 227</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Zilweg 13, 9016 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Immo10 AG</t>
+          <t>Unihome GmbH</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ZUHAUSE im GLÜCK</t>
+          <t>Zimmer für HSG-Studenten in Studentenhaus</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi.</t>
+          <t>Wohnung • 1 Zi. • 25 m²</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi.</t>
+          <t>Wohnung • 1 Zi. • 25 m²</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CHF 1’515.</t>
+          <t>CHF 795.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 382</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Unihome GmbH</t>
+          <t>Ritter Immobilien-Treuhand AG</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Zimmer für HSG-Studenten in Studentenhaus</t>
+          <t>Im Zentrum von St. Gallen!</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 25 m²</t>
+          <t>Wohnung • 1 Zi. • 24 m²</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 25 m²</t>
+          <t>Wohnung • 1 Zi. • 24 m²</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CHF 795.</t>
+          <t>CHF 830.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CHF 382</t>
+          <t>CHF 415</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Langgasse 43, 9008 St. Gallen</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ritter Immobilien-Treuhand AG</t>
+          <t>Kündig B&amp;I AG</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Im Zentrum von St. Gallen!</t>
+          <t>Günstige Gelegenheit. 4-Zimmerwohnung mit Waschmaschine</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 24 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 24 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CHF 830.</t>
+          <t>CHF 1’290.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CHF 415</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Langgasse 43, 9008 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>VERIT Immobilien AG</t>
+          <t>DANI BURKHART AG Raum + Architektur</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Single-Wohnung mitten in der Stadt St. Gallen</t>
+          <t>grüne Oase in Stadtnähe - 300m zur Busstation</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 48 m²</t>
+          <t>Wohnung • 5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 48 m²</t>
+          <t>Wohnung • 5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CHF 880.</t>
+          <t>CHF 2’320.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CHF 220</t>
+          <t>CHF 242</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9011 St. Gallen</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kündig B&amp;I AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Günstige Gelegenheit. 4-Zimmerwohnung mit Waschmaschine</t>
+          <t>«1 Zimmer Wohnung»</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 1 Zi. • 32 m²</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 1 Zi. • 32 m²</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CHF 1’290.</t>
+          <t>CHF 1’022.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 383</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>Espenmoosstrasse 1, 9008 St. Gallen</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>urbanhome.ch</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DANI BURKHART AG Raum + Architektur</t>
+          <t>Habitare Immobilien AG</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>grüne Oase in Stadtnähe - 300m zur Busstation</t>
+          <t>Attika 3.5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi. • 115 m²</t>
+          <t>Penthouse • 3.5 Zi. • 78 m²</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi. • 115 m²</t>
+          <t>Penthouse • 3.5 Zi. • 78 m²</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CHF 2’320.</t>
+          <t>CHF 2’022.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CHF 242</t>
+          <t>CHF 311</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>9011 St. Gallen</t>
+          <t>9015 St. Gallen</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3293,79 +3293,79 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>«1 Zimmer Wohnung»</t>
+          <t>HSG Student Living (befristet)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 32 m²</t>
+          <t>Einfamilienhaus • 5 Zi. • 135 m²</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 32 m²</t>
+          <t>Einfamilienhaus • 5 Zi. • 135 m²</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CHF 1’022.</t>
+          <t>CHF 3’700.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CHF 383</t>
+          <t>CHF 329</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Espenmoosstrasse 1, 9008 St. Gallen</t>
+          <t>Holzstrasse 9, 9010 St. Gallen</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>urbanhome.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Habitare Immobilien AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Attika 3.5</t>
+          <t>Wohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Penthouse • 3.5 Zi. • 78 m²</t>
+          <t>Wohnung • 4.5 Zi. • 93 m²</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Penthouse • 3.5 Zi. • 78 m²</t>
+          <t>Wohnung • 4.5 Zi. • 93 m²</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CHF 2’022.</t>
+          <t>CHF 1’690.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CHF 311</t>
+          <t>CHF 218</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>9015 St. Gallen</t>
+          <t>Lessingstrasse 25, 9008 St. Gallen</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
@@ -3377,32 +3377,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HSG Student Living (befristet)</t>
+          <t>SG-Rotmonten, nahe Bushaltestelle</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Einfamilienhaus • 5 Zi. • 135 m²</t>
+          <t>Wohnung • 4.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Einfamilienhaus • 5 Zi. • 135 m²</t>
+          <t>Wohnung • 4.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CHF 3’700.</t>
+          <t>CHF 1’680.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>CHF 329</t>
+          <t>CHF 202</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Holzstrasse 9, 9010 St. Gallen</t>
+          <t>Langackerstrasse 6, 9010 St. Gallen</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3414,37 +3414,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>VTAG Verwaltungs- und Treuhand AG</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Wohnung in St. Gallen</t>
+          <t>Komplett sanierte Wohnung</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 93 m²</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 93 m²</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CHF 1’690.</t>
+          <t>CHF 1’340.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CHF 218</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lessingstrasse 25, 9008 St. Gallen</t>
+          <t>Linsebühlstrasse 43, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3456,37 +3456,37 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>FUTURA Vorsorge</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SG-Rotmonten, nahe Bushaltestelle</t>
+          <t>Einfach perfekt!</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 100 m²</t>
+          <t>Wohnung • 4.5 Zi. • 109 m²</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 100 m²</t>
+          <t>Wohnung • 4.5 Zi. • 109 m²</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CHF 1’680.</t>
+          <t>CHF 2’200.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>CHF 202</t>
+          <t>CHF 242</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Langackerstrasse 6, 9010 St. Gallen</t>
+          <t>Straubenzellstrasse 20a, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3498,27 +3498,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>UZON Immobilien AG</t>
+          <t>VTAG Verwaltungs- und Treuhand AG</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Wohnen neben dem Silberturm</t>
+          <t>Sehr schöne komplett sanierte Wohnung</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CHF 1’300.</t>
+          <t>CHF 1’290.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3528,133 +3528,129 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Sonneggstrasse 5, 9000 St. Gallen</t>
+          <t>Linsebühlstrasse 43, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MATRO Immobilien AG</t>
+          <t>Vencedor-Real AG</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4,5 Zimmer Wohnung mit hellem Wohnzimmer</t>
+          <t>3.5 Zimmer Wohnung</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 79 m²</t>
+          <t>Wohnung • 3.5 Zi. • 85 m²</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 79 m²</t>
+          <t>Wohnung • 3.5 Zi. • 85 m²</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CHF 1’515.</t>
+          <t>CHF 1’490.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CHF 230</t>
+          <t>CHF 210</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Rorschacher Strasse 233, 9016 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Auwiesen Immobilien AG</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Wohnen mit Stil und Komfort</t>
-        </is>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 92 m²</t>
+          <t>Wohnung • 4.5 Zi. • 82 m²</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 92 m²</t>
+          <t>Wohnung • 4.5 Zi. • 82 m²</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CHF 1’650.</t>
+          <t>CHF 1’660.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CHF 215</t>
+          <t>CHF 243</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>9015 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Dr. Kenig Liegenschaften</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MODERNE 2.5 ZIMMERWOHNUNG IN ST. GALLEN</t>
+          <t>WG Neugründung</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 5.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 5.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CHF 990.</t>
+          <t>CHF 550.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 66</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Speicherstrasse 43, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3669,30 +3665,34 @@
           <t>—</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Wohnung für 4er WG</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 22 m²</t>
+          <t>Wohnung • 5.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 22 m²</t>
+          <t>Wohnung • 5.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CHF 899.</t>
+          <t>CHF 1’610.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CHF 490</t>
+          <t>CHF 193</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Spisergasse 43, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3704,111 +3704,111 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Crowdhouse AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MODERNE WOHNUNG MIT BALKON SUCHT NACHMIETER</t>
+          <t>Hochwertige 3.5 Zimmer-Wohnung in attraktiver Lage</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 53 m²</t>
+          <t>Wohnung • 3.5 Zi. • 82 m²</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 53 m²</t>
+          <t>Wohnung • 3.5 Zi. • 82 m²</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CHF 1’380.</t>
+          <t>CHF 1’930.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>CHF 312</t>
+          <t>CHF 282</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Crowdhouse AG</t>
+          <t>Bernasconi Immobilien</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ATTRAKTIVE KLEINWOHNUNG IN STADTNÄHE MIT WASCHTURM</t>
+          <t>Wunderschöne 4.5 Zimmer Wohnung mit toller Aussicht</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 43 m²</t>
+          <t>Wohnung • 4.5 Zi. • 91 m²</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 43 m²</t>
+          <t>Wohnung • 4.5 Zi. • 91 m²</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CHF 920.</t>
+          <t>CHF 2’170.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CHF 257</t>
+          <t>CHF 286</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Dafema AG</t>
+          <t>Galli Immo-Service AG</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2-Zimmerwohnung im Krontal</t>
+          <t>Moderne 1.5 Zimmer-Wohnung zu vermieten</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Wohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Wohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CHF 940.</t>
+          <t>CHF 890.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3818,39 +3818,39 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Brüschweiler Immobilien AG</t>
+          <t>Immo10 AG</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Grosszügige 6.5 Zimmer Wohnung in St.Gallen, sehr geeignet für ein Büro mit Wohnen</t>
+          <t>Ihre neue Wohlfühloase...</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Wohnung • 6.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi.</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wohnung • 6.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CHF 3’360.</t>
+          <t>CHF 1’990.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3872,32 +3872,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Stadt St.Gallen Liegenschaften Immobilienbewirtschaftung</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2 Zimmer Wohnung Stadtzentrum</t>
+          <t>Attraktive 3 Zimmer-Wohnung direkt neben Marktplatz</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Wohnung • 3 Zi. • 72 m²</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Wohnung • 3 Zi. • 72 m²</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CHF 855.</t>
+          <t>CHF 1’380.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 230</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3912,123 +3912,115 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4 Zimmer Wohnung Stadtzentrum</t>
+          <t>Gemütliche 4-Zimmer-Dach-Wohnung</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 4 Zi. • 109 m²</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 4 Zi. • 109 m²</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CHF 1’480.</t>
+          <t>CHF 1’460.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 161</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
+          <t>Rehetobelstrasse 47, 9000 St. Gallen</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>flatfox.ch</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Helle und grosse 4.5 Zimmer Wohnung mit Balkon</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>CHF 1’525.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>CHF 229</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>9000 St. Gallen</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>newhome.ch</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>BETTERHOMES (Schweiz) AG</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>GEMÜTLICH AN ZENTRALER LAGE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Wohnung • 2.5 Zi. • 52 m²</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Wohnung • 2.5 Zi. • 52 m²</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>CHF 1’330.</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>CHF 307</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>9000 St. Gallen</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>St. Gallen - Ost - ruhige und sonnige Lage - Nähe Spital</t>
+          <t>4.5 Zimmer-Wohnung mit Balkon</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 134 m²</t>
+          <t>Wohnung • 4.5 Zi. • 96 m²</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 134 m²</t>
+          <t>Wohnung • 4.5 Zi. • 96 m²</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CHF 1’880.</t>
+          <t>CHF 1’590.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CHF 168</t>
+          <t>CHF 199</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Bernhardswiesstrasse 29, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4040,37 +4032,37 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Stadt und Natur - ein Widerspruch? Nicht an dieser Wohnlage</t>
+          <t>3,5 Zimmer-Wohnung mit Sitzplatz</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 78 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 78 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CHF 1’460.</t>
+          <t>CHF 1’430.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CHF 225</t>
+          <t>CHF 229</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Bernhardswiesstrasse 31, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4082,32 +4074,32 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Immo10 AG</t>
+          <t>René L. Stein</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3 Zimmer-Wohnung im 4.OG - nähe Stadtzentrum St.Gallen</t>
+          <t>St. Georgen, Parterre, Klusstr. 20</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 70 m²</t>
+          <t>Wohnung • 3.5 Zi. • 71 m²</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 70 m²</t>
+          <t>Wohnung • 3.5 Zi. • 71 m²</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CHF 1’250.</t>
+          <t>CHF 1’735.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>CHF 214</t>
+          <t>CHF 293</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4117,39 +4109,39 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Livit AG</t>
+          <t>Sproll &amp; Ramseyer AG</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Condo/Apartment for rent, Langgasse 108/110, in St. Gallen, Switzerland</t>
+          <t>Moderne 1.5-Zimmer-Stadtwohnung im Osten der Stadt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 37 m²</t>
+          <t>Möblierte Wohnung • 1.5 Zi. • 32 m²</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 37 m²</t>
+          <t>Möblierte Wohnung • 1.5 Zi. • 32 m²</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CHF 870.</t>
+          <t>CHF 980.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>CHF 282</t>
+          <t>CHF 368</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4159,86 +4151,86 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>properstar.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Livit AG</t>
+          <t>Sproll &amp; Ramseyer AG</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Gemütliche Studentenwohnung</t>
+          <t>1.5 Zimmerwohnung direkt an der Uni</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 52 m²</t>
+          <t>Wohnung • 1.5 Zi. • 36 m²</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 52 m²</t>
+          <t>Wohnung • 1.5 Zi. • 36 m²</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CHF 1’160.</t>
+          <t>CHF 980.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CHF 268</t>
+          <t>CHF 327</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Leuenbergerstrasse 8, 9000 St. Gallen</t>
+          <t>Höhenweg 15, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IBSG AG</t>
+          <t>Wincasa AG</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>attraktive Stadtwohnung sucht Sie</t>
+          <t>Zentrale Stadtwohnung sucht Sie!</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 40 m²</t>
+          <t>Wohnung • 4 Zi. • 97 m²</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 40 m²</t>
+          <t>Wohnung • 4 Zi. • 97 m²</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CHF 1’110.</t>
+          <t>CHF 2’229.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>CHF 333</t>
+          <t>CHF 276</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Rorschacher Strasse 50a, 9000 St. Gallen</t>
+          <t>Goliathgasse 37, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4250,111 +4242,111 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>VTAG Verwaltungs- und Treuhand AG</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Wohnung in St. Gallen</t>
+          <t>Bahnhof und Zentrums Nahe Wohnung</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 90 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 90 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CHF 1’590.</t>
+          <t>CHF 1’240.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>CHF 212</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>Oberstrasse 25, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>antosal69</t>
+          <t>Lach Financial Consulting GmbH</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Miete</t>
+          <t>Modernisierte 5,5 Zi. Maisonette-Wohnung</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Villa • 5.5 Zi. • 133 m²</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Villa • 5.5 Zi. • 133 m²</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>CHF 990.</t>
+          <t>CHF 2’390.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 216</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q2meter GmbH</t>
+          <t>UZON Immobilien AG</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Zentrumsnah Wohnen</t>
+          <t>Gemütliche 1,5 Dachzimmer Wohnung</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Dachwohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Dachwohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>CHF 990.</t>
+          <t>CHF 750.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4364,7 +4356,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Sonneggstrasse 5, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4376,27 +4368,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>VTAG Verwaltungs- und Treuhand AG</t>
+          <t>UZON Immobilien AG</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gemütliche Wohnung im Raume St.Gallen</t>
+          <t>Wohnen neben dem Silberturm</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>CHF 1’390.</t>
+          <t>CHF 1’300.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4406,7 +4398,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>Sonneggstrasse 5, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4418,37 +4410,37 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>möbilierte lichtdurchflutete Maisonette Wohnung</t>
+          <t>4,5 Zimmer Wohnung mit hellem Wohnzimmer</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 93 m²</t>
+          <t>Wohnung • 4.5 Zi. • 79 m²</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 93 m²</t>
+          <t>Wohnung • 4.5 Zi. • 79 m²</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CHF 1’795.</t>
+          <t>CHF 1’515.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>CHF 232</t>
+          <t>CHF 230</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Rorschacher Strasse 233, 9016 St. Gallen</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4460,289 +4452,289 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SGBC Business Center AG</t>
+          <t>Auwiesen Immobilien AG</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4.5 room apartment super central on top of house</t>
+          <t>Wohnen mit Stil und Komfort</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Möblierte Wohnung • 4.5 Zi. • 70 m²</t>
+          <t>Wohnung • 3 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Möblierte Wohnung • 4.5 Zi. • 70 m²</t>
+          <t>Wohnung • 3 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CHF 1’900.</t>
+          <t>CHF 1’650.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>CHF 326</t>
+          <t>CHF 215</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Unterstrasse 59, 9000 St. Gallen</t>
+          <t>9015 St. Gallen</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>aro immo ag</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Summer Oasis: Apartment Sublet (June-August)</t>
+          <t>Modernes und ruhiges Wohnen in gepflegter Liegenschaft</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 53 m²</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 53 m²</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CHF 590.</t>
+          <t>CHF 1’490.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 337</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>GOLDINGER Immobilien AG</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Moderne Designer Wohnung</t>
+          <t>2. Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 22 m²</t>
+          <t>Wohnung • 2 Zi. • 39 m²</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 22 m²</t>
+          <t>Wohnung • 2 Zi. • 39 m²</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CHF 899.</t>
+          <t>CHF 1’090.</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>CHF 490</t>
+          <t>CHF 335</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Speicherstrasse 14, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Helvetia Schweizerische Lebensversicherungsges. AG</t>
+          <t>GOLDINGER Immobilien AG</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Condo/Apartment for rent, Meienbergstrasse 11, in St. Gallen, Switzerland</t>
+          <t>2.5 Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Penthouse • 2.5 Zi. • 81 m²</t>
+          <t>Wohnung • 2.5 Zi. • 55 m²</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Penthouse • 2.5 Zi. • 81 m²</t>
+          <t>Wohnung • 2.5 Zi. • 55 m²</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CHF 2’366.</t>
+          <t>CHF 1’640.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>CHF 351</t>
+          <t>CHF 358</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Speicherstrasse 14, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>properstar.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Livit AG</t>
+          <t>GOLDINGER Immobilien AG</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Luxus auf kleinem Raum</t>
+          <t>5.5 Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 26 m²</t>
+          <t>Wohnung • 5.5 Zi. • 120 m²</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 26 m²</t>
+          <t>Wohnung • 5.5 Zi. • 120 m²</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CHF 915.</t>
+          <t>CHF 2’495.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CHF 422</t>
+          <t>CHF 250</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>9012 St. Gallen</t>
+          <t>Speicherstrasse 14, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>immobilier.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>cosyhome ag</t>
+          <t>GOLDINGER Immobilien AG</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>St. Gallen-charmantes Wohnen in der Altstadt!</t>
+          <t>5.5 Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 92 m²</t>
+          <t>Wohnung • 5.5 Zi. • 120 m²</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 92 m²</t>
+          <t>Wohnung • 5.5 Zi. • 120 m²</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>CHF 2’290.</t>
+          <t>CHF 2’595.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>CHF 299</t>
+          <t>CHF 260</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Speicherstrasse 14, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>aro immo ag</t>
+          <t>GOLDINGER Immobilien AG</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Modernes und ruhiges Wohnen in gepflegter Liegenschaft</t>
+          <t>1.5 Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 53 m²</t>
+          <t>Wohnung • 1.5 Zi. • 27 m²</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 53 m²</t>
+          <t>Wohnung • 1.5 Zi. • 27 m²</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>CHF 1’490.</t>
+          <t>CHF 895.</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CHF 337</t>
+          <t>CHF 398</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Speicherstrasse 14, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4754,37 +4746,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GOLDINGER Immobilien AG</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2. Zimmerwohnung in St. Gallen</t>
+          <t>St. Gallen - Altstadt - Originelle Dachmaisonettewohnung</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 39 m²</t>
+          <t>Wohnung • 1.5 Zi. • 35 m²</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 39 m²</t>
+          <t>Wohnung • 1.5 Zi. • 35 m²</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CHF 1’090.</t>
+          <t>CHF 1’110.</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>CHF 335</t>
+          <t>CHF 381</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Speicherstrasse 14, 9000 St. Gallen</t>
+          <t>Neugasse 35, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4796,279 +4788,279 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GOLDINGER Immobilien AG</t>
+          <t>Maria Meienhofer</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2.5 Zimmerwohnung in St. Gallen</t>
+          <t>3.5 Wohnung zu vermieten</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 55 m²</t>
+          <t>Wohnung • 3.5 Zi. • 72 m²</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 55 m²</t>
+          <t>Wohnung • 3.5 Zi. • 72 m²</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>CHF 1’640.</t>
+          <t>CHF 1’278.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>CHF 358</t>
+          <t>CHF 213</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Speicherstrasse 14, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GOLDINGER Immobilien AG</t>
+          <t>BVB Services AG</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5.5 Zimmerwohnung in St. Gallen</t>
+          <t>Charmante Zimmerwohnung in bester Lage in der Altstadt in St. Gallen</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 120 m²</t>
+          <t>Wohnung • 1 Zi.</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 120 m²</t>
+          <t>Wohnung • 1 Zi.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>CHF 2’495.</t>
+          <t>CHF 740.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>CHF 250</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Speicherstrasse 14, 9000 St. Gallen</t>
+          <t>Metzgergasse 29, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GOLDINGER Immobilien AG</t>
+          <t>IBSG AG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5.5 Zimmerwohnung in St. Gallen</t>
+          <t>Modernisierte 3.5 Zimmer-Altbauwohnung</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 120 m²</t>
+          <t>Wohnung • 3.5 Zi. • 72 m²</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 120 m²</t>
+          <t>Wohnung • 3.5 Zi. • 72 m²</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>CHF 2’595.</t>
+          <t>CHF 1’370.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>CHF 260</t>
+          <t>CHF 228</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Speicherstrasse 14, 9000 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GOLDINGER Immobilien AG</t>
+          <t>IT3 St. Gallen AG</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1.5 Zimmerwohnung in St. Gallen</t>
+          <t>3.5 Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 27 m²</t>
+          <t>Wohnung • 3.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 27 m²</t>
+          <t>Wohnung • 3.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CHF 895.</t>
+          <t>CHF 1’490.</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>CHF 398</t>
+          <t>CHF 199</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Speicherstrasse 14, 9000 St. Gallen</t>
+          <t>Falkensteinstrasse 86, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>St. Gallen - Altstadt - Originelle Dachmaisonettewohnung</t>
+          <t>Helle, renovierte Altbauwohnung in ruhiger Lage</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 35 m²</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 35 m²</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CHF 1’110.</t>
+          <t>CHF 1’950.</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>CHF 381</t>
+          <t>CHF 246</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Neugasse 35, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Maria Meienhofer</t>
+          <t>Brüschweiler Immobilien AG</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3.5 Wohnung zu vermieten</t>
+          <t>2.5 Zimmer Wohnung nähe Shopping Arena St.Gallen</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 72 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 72 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CHF 1’278.</t>
+          <t>CHF 1’095.</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>CHF 213</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Mittelholzerstrasse 9, 9015 St. Gallen</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BVB Services AG</t>
+          <t>VID AG Verwaltungen - Immobilien Dienstleistungen</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Charmante Zimmerwohnung in bester Lage in der Altstadt in St. Gallen</t>
+          <t>Naturnah aber doch zentral</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi.</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi.</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CHF 740.</t>
+          <t>CHF 1’300.</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5078,7 +5070,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Metzgergasse 29, 9000 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5090,116 +5082,116 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IBSG AG</t>
+          <t>GEMAG Gebrüder Müller AG</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Modernisierte 3.5 Zimmer-Altbauwohnung</t>
+          <t>Wohnung nahe Stadtzentrum - sehr gute Anschlussmöglichkeiten</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 72 m²</t>
+          <t>Wohnung • 2.5 Zi. • 42 m²</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 72 m²</t>
+          <t>Wohnung • 2.5 Zi. • 42 m²</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CHF 1’370.</t>
+          <t>CHF 1’190.</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>CHF 228</t>
+          <t>CHF 340</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Andreasstrasse 9, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IT3 St. Gallen AG</t>
+          <t>Sunnyday AG</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3.5 Zimmerwohnung in St. Gallen</t>
+          <t>Schöne, sonnige 4.5 Zimmer-Wohnung an zentraler und ruhiger Lage</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 90 m²</t>
+          <t>Wohnung • 4.5 Zi. • 109 m²</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 90 m²</t>
+          <t>Wohnung • 4.5 Zi. • 109 m²</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CHF 1’490.</t>
+          <t>CHF 2’320.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CHF 199</t>
+          <t>CHF 255</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Falkensteinstrasse 86, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>novaron AG</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Helle, renovierte Altbauwohnung in ruhiger Lage</t>
+          <t>3 Zimmer Altbauwohnung zu vermieten</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 95 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 95 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CHF 1’950.</t>
+          <t>CHF 1’240.</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>CHF 246</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5209,118 +5201,118 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2 rooms for rent 6 minutes from the train station</t>
+          <t>Allein oder zu zweit: Hier könnte es Ihnen gefallen</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 70 m²</t>
+          <t>Wohnung • 4.5 Zi. • 85 m²</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 70 m²</t>
+          <t>Wohnung • 4.5 Zi. • 85 m²</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>CHF 750.</t>
+          <t>CHF 1’390.</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>CHF 129</t>
+          <t>CHF 196</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Unterstrasse 59, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Brüschweiler Immobilien AG</t>
+          <t>Properti AG</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2.5 Zimmer Wohnung nähe Shopping Arena St.Gallen</t>
+          <t>Charmante 2-Zimmer-Wohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 2 Zi. • 35 m²</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 2 Zi. • 35 m²</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>CHF 1’095.</t>
+          <t>CHF 1’100.</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 377</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Mittelholzerstrasse 9, 9015 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>VID AG Verwaltungen - Immobilien Dienstleistungen</t>
+          <t>Properti AG</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Naturnah aber doch zentral</t>
+          <t>Geräumige 4.5-Zimmer-Dachwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Dachwohnung • 4.5 Zi.</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Dachwohnung • 4.5 Zi.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>CHF 1’300.</t>
+          <t>CHF 1’600.</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5335,81 +5327,81 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GEMAG Gebrüder Müller AG</t>
+          <t>REAL Senn Immo GmbH</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Wohnung nahe Stadtzentrum - sehr gute Anschlussmöglichkeiten</t>
+          <t>Lust auf einen Tapetenwechsel? 3-Zi.-Wohnung mit Sitzplatz</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 42 m²</t>
+          <t>Wohnung • 3 Zi. • 54 m²</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 42 m²</t>
+          <t>Wohnung • 3 Zi. • 54 m²</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CHF 1’190.</t>
+          <t>CHF 1’010.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>CHF 340</t>
+          <t>CHF 224</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Andreasstrasse 9, 9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sunnyday AG</t>
+          <t>REAL Senn Immo GmbH</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Schöne, sonnige 4.5 Zimmer-Wohnung an zentraler und ruhiger Lage</t>
+          <t>Helle Stadtwohnung mitten im Zentrum</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 109 m²</t>
+          <t>Wohnung • 6 Zi.</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 109 m²</t>
+          <t>Wohnung • 6 Zi.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CHF 2’320.</t>
+          <t>CHF 2’370.</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>CHF 255</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -5426,32 +5418,32 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>novaron AG</t>
+          <t>Global Immobilien GmbH</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3 Zimmer Altbauwohnung zu vermieten</t>
+          <t>Erstvermietung nach Kernsanierung 4.5-Zimmer- Dachwohnung</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 102 m²</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 102 m²</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CHF 1’240.</t>
+          <t>CHF 2’050.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 241</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5461,44 +5453,44 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>Ruhani</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Allein oder zu zweit: Hier könnte es Ihnen gefallen</t>
+          <t>3 Zimmer wohnung</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 85 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 85 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CHF 1’390.</t>
+          <t>CHF 1’460.</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>CHF 196</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5510,158 +5502,158 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Properti AG</t>
+          <t>Varioserv AG</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Charmante 2-Zimmer-Wohnung in St. Gallen</t>
+          <t>Charmante Altbauwohnung in der Stadt!</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 35 m²</t>
+          <t>Wohnung • 3.5 Zi. • 72 m²</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 35 m²</t>
+          <t>Wohnung • 3.5 Zi. • 72 m²</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CHF 1’100.</t>
+          <t>CHF 1’330.</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>CHF 377</t>
+          <t>CHF 222</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Properti AG</t>
+          <t>SGBC Business Center AG</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Geräumige 4.5-Zimmer-Dachwohnung in St. Gallen</t>
+          <t>4 fully furnished Rooms with own bath ensuite. Big kitchen, super central</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Dachwohnung • 4.5 Zi.</t>
+          <t>Möblierte Wohnung • 4.5 Zi. • 130 m²</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Dachwohnung • 4.5 Zi.</t>
+          <t>Möblierte Wohnung • 4.5 Zi. • 130 m²</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>CHF 1’600.</t>
+          <t>CHF 940.</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 87</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>Tellstrasse 18, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>REAL Senn Immo GmbH</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lust auf einen Tapetenwechsel? 3-Zi.-Wohnung mit Sitzplatz</t>
+          <t>3,5-Zimmer-Wohnung im St.Gallen</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 54 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 54 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CHF 1’010.</t>
+          <t>CHF 1’070.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>CHF 224</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>REAL Senn Immo GmbH</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Helle Stadtwohnung mitten im Zentrum</t>
+          <t>Wundervolle 3-Zimmer Wohnung möbliert abzugeben</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Wohnung • 6 Zi.</t>
+          <t>Wohnung • 3 Zi. • 60 m²</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Wohnung • 6 Zi.</t>
+          <t>Wohnung • 3 Zi. • 60 m²</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CHF 2’370.</t>
+          <t>CHF 1’060.</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 212</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5671,39 +5663,39 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Global Immobilien GmbH</t>
+          <t>Equans Switzerland Facility Management AG</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Erstvermietung nach Kernsanierung 4.5-Zimmer- Dachwohnung</t>
+          <t>Willkommen zu Hause!</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 102 m²</t>
+          <t>Wohnung • 3.5 Zi. • 77 m²</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 102 m²</t>
+          <t>Wohnung • 3.5 Zi. • 77 m²</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>CHF 2’050.</t>
+          <t>CHF 1’845.</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>CHF 241</t>
+          <t>CHF 288</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5713,212 +5705,212 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ruhani</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3 Zimmer wohnung</t>
+          <t>Schöne Urbane 3.5 Zimmerwohnung mit Lift und 2 Balkonen in St. Gallen zu Vermieten</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>CHF 1’460.</t>
+          <t>CHF 1’499.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 240</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Varioserv AG</t>
+          <t>IBSG AG</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Charmante Altbauwohnung in der Stadt!</t>
+          <t>Stadtnahe Wohnung</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 72 m²</t>
+          <t>Wohnung • 3.5 Zi. • 97 m²</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 72 m²</t>
+          <t>Wohnung • 3.5 Zi. • 97 m²</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>CHF 1’330.</t>
+          <t>CHF 1’950.</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>CHF 222</t>
+          <t>CHF 241</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Burgstrasse 51, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SGBC Business Center AG</t>
+          <t>GOLDINGER Immobilien AG</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>4 fully furnished Rooms with own bath ensuite. Big kitchen, super central</t>
+          <t>MODERNE 3.5 Zimmer-Wohnung mit GROSSZÜGIGEM Balkon zu vermieten</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Möblierte Wohnung • 4.5 Zi. • 130 m²</t>
+          <t>Wohnung • 3.5 Zi. • 98 m²</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Möblierte Wohnung • 4.5 Zi. • 130 m²</t>
+          <t>Wohnung • 3.5 Zi. • 98 m²</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>CHF 940.</t>
+          <t>CHF 2’070.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>CHF 87</t>
+          <t>CHF 253</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Tellstrasse 18, 9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Meier &amp; Partner Immobilien AG</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3,5-Zimmer-Wohnung im St.Gallen</t>
+          <t>Sonnige &amp; zentrumsnahe 2.5-Zimmerwohnung in der Überbauung "SOLARIUS"</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 59 m²</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 59 m²</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>CHF 1’070.</t>
+          <t>CHF 1’610.</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 327</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Properti AG</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Wundervolle 3-Zimmer Wohnung möbliert abzugeben</t>
+          <t>Attraktive 3.5-Zimmer-Wohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 60 m²</t>
+          <t>Wohnung • 3.5 Zi. • 65 m²</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 60 m²</t>
+          <t>Wohnung • 3.5 Zi. • 65 m²</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>CHF 1’060.</t>
+          <t>CHF 1’450.</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>CHF 212</t>
+          <t>CHF 268</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5930,32 +5922,32 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Equans Switzerland Facility Management AG</t>
+          <t>Intercity Bewirtschaftung AG</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Willkommen zu Hause!</t>
+          <t>Tolle 5.5 Zimmer-Maisonette-Wohnung im Zentrum von St. Gallen</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 77 m²</t>
+          <t>Duplex • 5.5 Zi. • 145 m²</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 77 m²</t>
+          <t>Duplex • 5.5 Zi. • 145 m²</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>CHF 1’845.</t>
+          <t>CHF 2’440.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>CHF 288</t>
+          <t>CHF 202</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5965,39 +5957,39 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Wildegg Immobilien AG</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Schöne Urbane 3.5 Zimmerwohnung mit Lift und 2 Balkonen in St. Gallen zu Vermieten</t>
+          <t>3.5 Zimmerwohnung mitten in der Stadt</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 75 m²</t>
+          <t>Wohnung • 3.5 Zi. • 68 m²</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 75 m²</t>
+          <t>Wohnung • 3.5 Zi. • 68 m²</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CHF 1’499.</t>
+          <t>CHF 1’285.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>CHF 240</t>
+          <t>CHF 227</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6007,44 +5999,44 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IBSG AG</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Stadtnahe Wohnung</t>
+          <t>Maisonette mit Gartensitzplatz im Espenmoos</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 97 m²</t>
+          <t>Duplex • 4.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 97 m²</t>
+          <t>Duplex • 4.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>CHF 1’950.</t>
+          <t>CHF 1’730.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>CHF 241</t>
+          <t>CHF 208</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Burgstrasse 51, 9000 St. Gallen</t>
+          <t>Espentobelstrasse 5b, 9008 St. Gallen</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6056,74 +6048,74 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>GOLDINGER Immobilien AG</t>
+          <t>UZON Immobilien AG</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MODERNE 3.5 Zimmer-Wohnung mit GROSSZÜGIGEM Balkon zu vermieten</t>
+          <t>Schöne 4 Zimmer Wohnung</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 98 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 98 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>CHF 2’070.</t>
+          <t>CHF 1’390.</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>CHF 253</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>Rehetobelstrasse 65c, 9016 St. Gallen</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Meier &amp; Partner Immobilien AG</t>
+          <t>Global Immobilien GmbH</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sonnige &amp; zentrumsnahe 2.5-Zimmerwohnung in der Überbauung "SOLARIUS"</t>
+          <t>attraktive 2.5 Zi.-Wohnung - Erstbezug nach Kernsanierung</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 59 m²</t>
+          <t>Wohnung • 2.5 Zi. • 51 m²</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 59 m²</t>
+          <t>Wohnung • 2.5 Zi. • 51 m²</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>CHF 1’610.</t>
+          <t>CHF 1’350.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>CHF 327</t>
+          <t>CHF 318</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -6133,86 +6125,86 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Properti AG</t>
+          <t>F. Brändle Immo AG</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Attraktive 3.5-Zimmer-Wohnung in St. Gallen</t>
+          <t>Altstadt</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 65 m²</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 65 m²</t>
+          <t>Wohnung • 2 Zi.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CHF 1’450.</t>
+          <t>CHF 920.</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>CHF 268</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Livit AG Real Estate Management</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Heimkommen und Wohlfühlen</t>
+          <t>Gemütliche Wohnung im Stadtzentrum - einige Möbel inklusive!</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 71 m²</t>
+          <t>Wohnung • 2 Zi. • 56 m²</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 71 m²</t>
+          <t>Wohnung • 2 Zi. • 56 m²</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>CHF 1’450.</t>
+          <t>CHF 1’149.</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>CHF 245</t>
+          <t>CHF 246</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Goliathgasse 12, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6224,32 +6216,32 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Intercity Bewirtschaftung AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Tolle 5.5 Zimmer-Maisonette-Wohnung im Zentrum von St. Gallen</t>
+          <t>Rent Flat</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Duplex • 5.5 Zi. • 145 m²</t>
+          <t>Wohnung • 1 Zi.</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Duplex • 5.5 Zi. • 145 m²</t>
+          <t>Wohnung • 1 Zi.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>CHF 2’440.</t>
+          <t>CHF 723.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>CHF 202</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6259,207 +6251,207 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Wildegg Immobilien AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3.5 Zimmerwohnung mitten in der Stadt</t>
+          <t>Grosszügige, doppelstöckige 4.5-Zimmer Wohnung mit 3 Balkonen und Garten</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 68 m²</t>
+          <t>Wohnung • 4.5 Zi. • 120 m²</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 68 m²</t>
+          <t>Wohnung • 4.5 Zi. • 120 m²</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CHF 1’285.</t>
+          <t>CHF 2’700.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>CHF 227</t>
+          <t>CHF 270</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9010 St. Gallen</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>IBSG AG</t>
+          <t>Sulser + Co. AG</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NEUBAU Single-Wohnung</t>
+          <t>Whg. für Studenten oder Wochenaufenthalter nähe Bahnhof/Uni/FHS/BvGer</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 36 m²</t>
+          <t>Penthouse • 1 Zi. • 32 m²</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 36 m²</t>
+          <t>Penthouse • 1 Zi. • 32 m²</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>CHF 1’110.</t>
+          <t>CHF 750.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>CHF 370</t>
+          <t>CHF 281</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Brauerstrasse, 9016 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Regimo St. Gallen AG</t>
+          <t>hamay ag</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Maisonette mit Gartensitzplatz im Espenmoos</t>
+          <t>zentrale, grosszügige Jugendstillwohnung</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Duplex • 4.5 Zi. • 100 m²</t>
+          <t>Wohnung • 5 Zi. • 143 m²</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Duplex • 4.5 Zi. • 100 m²</t>
+          <t>Wohnung • 5 Zi. • 143 m²</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>CHF 1’730.</t>
+          <t>CHF 1’680.</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>CHF 208</t>
+          <t>CHF 141</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Espentobelstrasse 5b, 9008 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>UZON Immobilien AG</t>
+          <t>Wolfgang Schweidler</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Schöne 4 Zimmer Wohnung</t>
+          <t>Top of St. Gallen</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 6 Zi. • 170 m²</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 6 Zi. • 170 m²</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>CHF 1’390.</t>
+          <t>CHF 3’230.</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 228</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Rehetobelstrasse 65c, 9016 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Global Immobilien GmbH</t>
+          <t>UMS AG - Untermietservice - Temporary Housing</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>attraktive 2.5 Zi.-Wohnung - Erstbezug nach Kernsanierung</t>
+          <t>3 ZI-WOHNUNG IN ST. GALLEN - ST. GEORGEN, MÖBLIERT, TEMPORÄR</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 51 m²</t>
+          <t>Möblierte Wohnung • 3 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 51 m²</t>
+          <t>Möblierte Wohnung • 3 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CHF 1’350.</t>
+          <t>CHF 1’888.</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>CHF 318</t>
+          <t>CHF 324</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -6469,86 +6461,86 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>F. Brändle Immo AG</t>
+          <t>Sproll &amp; Ramseyer AG</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Altstadt</t>
+          <t>2.5 Zimmerwohnung direkt an der Uni</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 49 m²</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi.</t>
+          <t>Wohnung • 2.5 Zi. • 49 m²</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>CHF 920.</t>
+          <t>CHF 1’430.</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 350</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Höhenweg 13, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Schaeppi Grundstücke AG</t>
+          <t>EIKO Verwaltungs AG</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Wohnen am Puls der Stadt</t>
+          <t>helle 4.5-Zimmerwohnung an ruhiger Lage</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 56 m²</t>
+          <t>Terrassenwohnung • 4.5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 56 m²</t>
+          <t>Terrassenwohnung • 4.5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>CHF 1’149.</t>
+          <t>CHF 2’730.</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>CHF 246</t>
+          <t>CHF 285</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Goliathgasse 12, 9000 St. Gallen</t>
+          <t>9011 St. Gallen</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6560,32 +6552,32 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>aro immo ag</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Rent Flat</t>
+          <t>Moderne 5 ½-Zimmer Maisonette-Wohnung an ruhiger, zentraler Lage</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi.</t>
+          <t>Wohnung • 5.5 Zi. • 170 m²</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi.</t>
+          <t>Wohnung • 5.5 Zi. • 170 m²</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>CHF 723.</t>
+          <t>CHF 2’710.</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 191</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6595,7 +6587,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
@@ -6607,32 +6599,32 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Grosszügige, doppelstöckige 4.5-Zimmer Wohnung mit 3 Balkonen und Garten</t>
+          <t>Grosse helle Wohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 120 m²</t>
+          <t>Wohnung • 5.5 Zi.</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 120 m²</t>
+          <t>Wohnung • 5.5 Zi.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CHF 2’700.</t>
+          <t>CHF 2’375.</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>CHF 270</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>9010 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6644,32 +6636,32 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sulser + Co. AG</t>
+          <t>Die Immo AG</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Whg. für Studenten oder Wochenaufenthalter nähe Bahnhof/Uni/FHS/BvGer</t>
+          <t>Grosszügige 2.5 Zimmer Neubau Wohnung St. Gallen - St. Fiden</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Penthouse • 1 Zi. • 32 m²</t>
+          <t>Wohnung • 2.5 Zi. • 68 m²</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Penthouse • 1 Zi. • 32 m²</t>
+          <t>Wohnung • 2.5 Zi. • 68 m²</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CHF 750.</t>
+          <t>CHF 1’770.</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>CHF 281</t>
+          <t>CHF 315</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -6686,79 +6678,79 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>hamay ag</t>
+          <t>Galli Immo-Service AG</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>zentrale, grosszügige Jugendstillwohnung</t>
+          <t>Ruhige Familien-Stadtwohnung in St. Fiden</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi. • 143 m²</t>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Wohnung • 5 Zi. • 143 m²</t>
+          <t>Wohnung • 4.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CHF 1’680.</t>
+          <t>CHF 1’390.</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>CHF 141</t>
+          <t>CHF 209</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Helvetiastrasse 33, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Wolfgang Schweidler</t>
+          <t>Liegenschaften Treuhand St.Gallen AG</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Top of St. Gallen</t>
+          <t>repräsentative 5,5 Zimmer-Wohnung am Fusse des Rosenberges</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Wohnung • 6 Zi. • 170 m²</t>
+          <t>Wohnung • 5.5 Zi. • 151 m²</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Wohnung • 6 Zi. • 170 m²</t>
+          <t>Wohnung • 5.5 Zi. • 151 m²</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>CHF 3’230.</t>
+          <t>CHF 2’934.</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>CHF 228</t>
+          <t>CHF 233</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6770,32 +6762,32 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>UMS AG - Untermietservice - Temporary Housing</t>
+          <t>Inoba GmbH</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>3 ZI-WOHNUNG IN ST. GALLEN - ST. GEORGEN, MÖBLIERT, TEMPORÄR</t>
+          <t>Heimelig in der Stadt - 4-Zi. Maisonette-Dachwohnung</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Möblierte Wohnung • 3 Zi. • 70 m²</t>
+          <t>Dachwohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Möblierte Wohnung • 3 Zi. • 70 m²</t>
+          <t>Dachwohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>CHF 1’888.</t>
+          <t>CHF 1’890.</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>CHF 324</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -6805,44 +6797,44 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Sproll &amp; Ramseyer AG</t>
+          <t>Unihome GmbH</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2.5 Zimmerwohnung direkt an der Uni</t>
+          <t>4 Zimmerwohnung Altbau mit grosser Balkonanlage</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 49 m²</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 49 m²</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>CHF 1’430.</t>
+          <t>CHF 1’790.</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>CHF 350</t>
+          <t>CHF 226</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Höhenweg 13, 9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6854,121 +6846,121 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>EIKO Verwaltungs AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>helle 4.5-Zimmerwohnung an ruhiger Lage</t>
+          <t>Schöne, renovierte Altbauwohnung im zentralen St. Gallen (82m²) mit Balkon</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Terrassenwohnung • 4.5 Zi. • 115 m²</t>
+          <t>Wohnung • 4.5 Zi. • 82 m²</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Terrassenwohnung • 4.5 Zi. • 115 m²</t>
+          <t>Wohnung • 4.5 Zi. • 82 m²</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>CHF 2’730.</t>
+          <t>CHF 1’920.</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>CHF 285</t>
+          <t>CHF 281</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>9011 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>aro immo ag</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Moderne 5 ½-Zimmer Maisonette-Wohnung an ruhiger, zentraler Lage</t>
+          <t>Wohnen im Grünen - schöne 4 Zimmer Wohnung</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 170 m²</t>
+          <t>Wohnung • 4 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 170 m²</t>
+          <t>Wohnung • 4 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>CHF 2’710.</t>
+          <t>CHF 1’560.</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>CHF 191</t>
+          <t>CHF 234</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Sankt Georgen-Strasse 100A, 9011 St. Gallen</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Verit Immobilien AG</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Grosse helle Wohnung in St. Gallen</t>
+          <t>Das Beste von Stadt und Land!</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 88 m²</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 88 m²</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CHF 2’375.</t>
+          <t>CHF 1’811.</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 247</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6980,116 +6972,116 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Die Immo AG</t>
+          <t>Verit Immobilien AG</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Grosszügige 2.5 Zimmer Neubau Wohnung St. Gallen - St. Fiden</t>
+          <t>Leben Sie Ihren Wohntraum in Bernhardswies!</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 68 m²</t>
+          <t>Wohnung • 3.5 Zi. • 87 m²</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 68 m²</t>
+          <t>Wohnung • 3.5 Zi. • 87 m²</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>CHF 1’770.</t>
+          <t>CHF 1’832.</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>CHF 315</t>
+          <t>CHF 253</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Galli Immo-Service AG</t>
+          <t>Melanie Keller</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ruhige Familien-Stadtwohnung in St. Fiden</t>
+          <t>zentrumsnah und gemütlich!</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 80 m²</t>
+          <t>Wohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 80 m²</t>
+          <t>Wohnung • 1.5 Zi.</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>CHF 1’390.</t>
+          <t>CHF 790.</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>CHF 209</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Helvetiastrasse 33, 9000 St. Gallen</t>
+          <t>Teufener Strasse 41, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Liegenschaften Treuhand St.Gallen AG</t>
+          <t>Livit AG</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>repräsentative 5,5 Zimmer-Wohnung am Fusse des Rosenberges</t>
+          <t>Zentrale Stadtwohnung</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 151 m²</t>
+          <t>Wohnung • 2 Zi. • 1 m²</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Wohnung • 5.5 Zi. • 151 m²</t>
+          <t>Wohnung • 2 Zi. • 1 m²</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>CHF 2’934.</t>
+          <t>CHF 960.</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>CHF 233</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7106,27 +7098,27 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Inoba GmbH</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Heimelig in der Stadt - 4-Zi. Maisonette-Dachwohnung</t>
+          <t>«Mitbewohner*in in WG im Zentrum von St.Gallen gesucht»</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Dachwohnung • 4 Zi.</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Dachwohnung • 4 Zi.</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>CHF 1’890.</t>
+          <t>CHF 691.</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7141,81 +7133,81 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>urbanhome.ch</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Unihome GmbH</t>
+          <t>IMMOexacta AG</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>4 Zimmerwohnung Altbau mit grosser Balkonanlage</t>
+          <t>helle 4.5 Zimmerwohnung mit Top Aussicht im grünen</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 95 m²</t>
+          <t>Wohnung • 4.5 Zi. • 85 m²</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 95 m²</t>
+          <t>Wohnung • 4.5 Zi. • 85 m²</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CHF 1’790.</t>
+          <t>CHF 1’490.</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>CHF 226</t>
+          <t>CHF 210</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>Ruhsitzstrasse 27, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>IT3 St. Gallen AG</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Schöne, renovierte Altbauwohnung im zentralen St. Gallen (82m²) mit Balkon</t>
+          <t>2.0 Zimmerwohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 82 m²</t>
+          <t>Wohnung • 2 Zi. • 40 m²</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 82 m²</t>
+          <t>Wohnung • 2 Zi. • 40 m²</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CHF 1’920.</t>
+          <t>CHF 1’090.</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>CHF 281</t>
+          <t>CHF 327</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -7225,464 +7217,464 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MATRO Immobilien AG</t>
+          <t>Cristuzzi Immo.-Treuhand AG</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Wohnen im Grünen - schöne 4 Zimmer Wohnung</t>
+          <t>Ihr neues Zuhause in Grüner Umgebung</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 80 m²</t>
+          <t>Wohnung • 3.5 Zi. • 84 m²</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 80 m²</t>
+          <t>Wohnung • 3.5 Zi. • 84 m²</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>CHF 1’560.</t>
+          <t>CHF 1’525.</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>CHF 234</t>
+          <t>CHF 218</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Sankt Georgen-Strasse 100A, 9011 St. Gallen</t>
+          <t>Untere Kräzern 8, 9015 St. Gallen</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Verit Immobilien AG</t>
+          <t>Schaeppi Grundstücke AG</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Das Beste von Stadt und Land!</t>
+          <t>Grosszügige, helle Wohnung mit eigener Sauna!</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 88 m²</t>
+          <t>Duplex • 5.5 Zi. • 178 m²</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 88 m²</t>
+          <t>Duplex • 5.5 Zi. • 178 m²</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CHF 1’811.</t>
+          <t>CHF 2’315.</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>CHF 247</t>
+          <t>CHF 156</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Verit Immobilien AG</t>
+          <t>Schaeppi Grundstücke AG</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Leben Sie Ihren Wohntraum in Bernhardswies!</t>
+          <t>Grosszügige, helle Wohnung mit fantastischer Aussicht!</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 87 m²</t>
+          <t>Duplex • 3.5 Zi. • 124 m²</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 87 m²</t>
+          <t>Duplex • 3.5 Zi. • 124 m²</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>CHF 1’832.</t>
+          <t>CHF 1’870.</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>CHF 253</t>
+          <t>CHF 181</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Melanie Keller</t>
+          <t>Privera AG</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>zentrumsnah und gemütlich!</t>
+          <t>Wir suchen genau Sie</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 66 m²</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 66 m²</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CHF 790.</t>
+          <t>CHF 1’190.</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 216</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Teufener Strasse 41, 9000 St. Gallen</t>
+          <t>Wolfgangstrasse 65, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Livit AG</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Zentrale Stadtwohnung</t>
+          <t>3,5 Zimmer-Wohnung mit Balkon und schöner Aussicht</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 1 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 1 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>CHF 960.</t>
+          <t>CHF 1’380.</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 221</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Bernhardswiesstrasse 15, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>«Mitbewohner*in in WG im Zentrum von St.Gallen gesucht»</t>
+          <t>St. Georgen - 3.5 ZW an sonniger Wohnlage</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Studio • 1 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Studio • 1 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>CHF 691.</t>
+          <t>CHF 1’450.</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 249</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Spiltrücklistrasse 3B, 9011 St. Gallen</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>urbanhome.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>IMMOexacta AG</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>helle 4.5 Zimmerwohnung mit Top Aussicht im grünen</t>
+          <t>Renovierte 3-Zimmer Wohnung mit Geschirrspüler</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 85 m²</t>
+          <t>Wohnung • 3 Zi. • 55 m²</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 85 m²</t>
+          <t>Wohnung • 3 Zi. • 55 m²</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>CHF 1’490.</t>
+          <t>CHF 1’150.</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>CHF 210</t>
+          <t>CHF 251</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Ruhsitzstrasse 27, 9000 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Privera AG</t>
+          <t>Sproll &amp; Ramseyer AG</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ein glücklicher Wohnungsstart</t>
+          <t>Moderne 1.0 Zimmerwohnung im Herzen von St. Gallen zu vermieten</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Penthouse • 5.5 Zi. • 149 m²</t>
+          <t>Wohnung • 1 Zi. • 26 m²</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Penthouse • 5.5 Zi. • 149 m²</t>
+          <t>Wohnung • 1 Zi. • 26 m²</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>CHF 2’690.</t>
+          <t>CHF 970.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>CHF 217</t>
+          <t>CHF 448</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>IBSG AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modernisierte 4.5 Zimmer-Wohnung Dachgeschoss</t>
+          <t>Charmante, ruhige und zentrale 4,5 Zi-Altbauwohnung St. Gallen-Bruggen</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 91 m²</t>
+          <t>Wohnung • 4.5 Zi. • 85 m²</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 91 m²</t>
+          <t>Wohnung • 4.5 Zi. • 85 m²</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CHF 1’890.</t>
+          <t>CHF 1’700.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>CHF 249</t>
+          <t>CHF 240</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Walserstrasse 6, 9014 St. Gallen</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Baugenossenschaft SVEA</t>
+          <t>IPM GmbH</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>4 1/2 - Zimmer Dachmaisonettewohnung mit Balkon</t>
+          <t>schöne 4-Zimmer-Wohnung mit Balkon an ruhiger Lage</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 4 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 4 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CHF 1’518.</t>
+          <t>CHF 1’450.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 249</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>Hagenbuchstrasse 30b, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SISKA Verwaltungs AG</t>
+          <t>BETTERHOMES (Schweiz) AG</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Befristete 4-Zimmerwohnung nähe Uni</t>
+          <t>HELL UND KINDERFREUNDLICH</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 95 m²</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CHF 1’384.</t>
+          <t>CHF 1’540.</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 195</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Varnbüelstrasse 11, 9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7694,42 +7686,42 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Euro Estates GmbH</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Schöne, helle 4-Zimmerwohnung an zentraler Lage</t>
+          <t>WG Zimmer 4 min zur HSG</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 77 m²</t>
+          <t>Wohnung • 4.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 77 m²</t>
+          <t>Wohnung • 4.5 Zi. • 100 m²</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CHF 1’525.</t>
+          <t>CHF 976.</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CHF 238</t>
+          <t>CHF 117</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9010 St. Gallen</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
@@ -7741,32 +7733,32 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>1.5 Zimmer Wohnung</t>
+          <t>Spezielle Dachwohnung zu fairem Preis!</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 30 m²</t>
+          <t>Wohnung • 3 Zi. • 60 m²</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 30 m²</t>
+          <t>Wohnung • 3 Zi. • 60 m²</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>CHF 860.</t>
+          <t>CHF 1’450.</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>CHF 344</t>
+          <t>CHF 290</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Tschudistrasse 14, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7778,27 +7770,27 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Brüschweiler Immobilien AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Maisonette 6.5 Zimmer Wohnung - riesige Terrasse mit zusätzlichem Balkon,  Cheminée und eigener Waschturm</t>
+          <t>Hi :)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Wohnung • 6.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Wohnung • 6.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>CHF 3’230.</t>
+          <t>CHF 800.</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7808,128 +7800,128 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PRIVERA AG</t>
+          <t>MATRO Immobilien AG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Schöner Wohnen</t>
+          <t>Helle 3.5 Zimmer Wohnung</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 96 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 96 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CHF 2’025.</t>
+          <t>CHF 1’280.</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>CHF 253</t>
+          <t>CHF 205</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Rorschacher Strasse 188, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AGSW</t>
+          <t>IBSG AG</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Exklusive, grosse 1.5-Zimmerwohnung im Stadtkern</t>
+          <t>Helle Wohnung mit zentraler Lage sucht Mieter</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 3 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 3 Zi. • 70 m²</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CHF 1’680.</t>
+          <t>CHF 1’510.</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 259</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Unterer Graben 39, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AGSW</t>
+          <t>Brauerei Schützengarten AG</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Moderne 2.5 Zimmer-Wohnung im Stadtkern von St. Gallen</t>
+          <t>Sanierte Altbauwohnung an zentraler Lage</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 93 m²</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 93 m²</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CHF 2’230.</t>
+          <t>CHF 1’805.</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 233</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7939,333 +7931,333 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AGSW</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>4 Zimmer Maisonette-Dachwohnung</t>
+          <t>Zentrale 4.5-Zimmerwohnung mit Balkon und Schwedenofen</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Duplex • 4 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Duplex • 4 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CHF 2’390.</t>
+          <t>CHF 1’420.</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 189</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Landhausstrasse 3, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Sproll &amp; Ramseyer AG</t>
+          <t>PRETIUM AG</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Moderne 1.0 Zimmerwohnung im Herzen von St. Gallen zu vermieten</t>
+          <t>moderne 2½ Zimmer-Wohnung an zentrumsnaher Lage</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 26 m²</t>
+          <t>Wohnung • 2.5 Zi. • 54 m²</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Wohnung • 1 Zi. • 26 m²</t>
+          <t>Wohnung • 2.5 Zi. • 54 m²</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CHF 970.</t>
+          <t>CHF 1’350.</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>CHF 448</t>
+          <t>CHF 300</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Feldbachstrasse 8, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Euro Estates GmbH</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Charmante, ruhige und zentrale 4,5 Zi-Altbauwohnung St. Gallen-Bruggen</t>
+          <t>Schöne, helle 3-Zimmerwohnung an zentraler Lage!</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 85 m²</t>
+          <t>Wohnung • 3 Zi. • 62 m²</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 85 m²</t>
+          <t>Wohnung • 3 Zi. • 62 m²</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CHF 1’700.</t>
+          <t>CHF 1’290.</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>CHF 240</t>
+          <t>CHF 250</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Walserstrasse 6, 9014 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>IPM GmbH</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>schöne 4-Zimmer-Wohnung mit Balkon an ruhiger Lage</t>
+          <t>Schöne 3 1/2 Zimmer Wohnung</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 70 m²</t>
+          <t>Wohnung • 3.5 Zi. • 86 m²</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 70 m²</t>
+          <t>Wohnung • 3.5 Zi. • 86 m²</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CHF 1’450.</t>
+          <t>CHF 2’430.</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>CHF 249</t>
+          <t>CHF 339</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Hagenbuchstrasse 30b, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BETTERHOMES (Schweiz) AG</t>
+          <t>Wincasa AG</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>HELL UND KINDERFREUNDLICH</t>
+          <t>Renovierte Wohnung an zentraler Lage zu vermieten!</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 95 m²</t>
+          <t>Wohnung • 3 Zi. • 65 m²</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 95 m²</t>
+          <t>Wohnung • 3 Zi. • 65 m²</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>CHF 1’540.</t>
+          <t>CHF 1’590.</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>CHF 195</t>
+          <t>CHF 294</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>9014 St. Gallen</t>
+          <t>Lukasstrasse 2, 9008 St. Gallen</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>cosyhome ag</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>WG Zimmer 4 min zur HSG</t>
+          <t>St. Gallen - Zentrale und lässige Dach-Wohnung mit Galerie, Cheminée und Balkon!</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 100 m²</t>
+          <t>Dachwohnung • 4.5 Zi. • 116 m²</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 100 m²</t>
+          <t>Dachwohnung • 4.5 Zi. • 116 m²</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>CHF 976.</t>
+          <t>CHF 2’390.</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>CHF 117</t>
+          <t>CHF 247</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>9010 St. Gallen</t>
+          <t>Feldlistrasse 29a, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>GEMAG Gebrüder Müller AG</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Spezielle Dachwohnung zu fairem Preis!</t>
+          <t>Stilvolle Stadtwohnung im Eigentumsstandard</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 60 m²</t>
+          <t>Wohnung • 3.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 60 m²</t>
+          <t>Wohnung • 3.5 Zi. • 90 m²</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CHF 1’450.</t>
+          <t>CHF 2’090.</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>CHF 290</t>
+          <t>CHF 279</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Dieses Haus AG</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Hi :)</t>
+          <t>4.5-Zimmer-Wohnung</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Wohnung • 4.5 Zi. • 115 m²</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CHF 800.</t>
+          <t>CHF 2’080.</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 218</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8275,61 +8267,61 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Intershop Management AG</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Familienwohnung im Rosenbüchel</t>
+          <t>Maisonette-Wohnung in St. Gallen</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 110 m²</t>
+          <t>Duplex • 5 Zi. • 109 m²</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 110 m²</t>
+          <t>Duplex • 5 Zi. • 109 m²</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CHF 2’210.</t>
+          <t>CHF 1’640.</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>CHF 241</t>
+          <t>CHF 181</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Rosenbüchelstrasse 29, 9014 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MATRO Immobilien AG</t>
+          <t>Romag Treuhand AG</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Helle 3.5 Zimmer Wohnung</t>
+          <t>3.5 Zimmer Wohnung mit viel Charme</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8344,96 +8336,96 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CHF 1’280.</t>
+          <t>CHF 1’260.</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>CHF 205</t>
+          <t>CHF 202</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Rorschacher Strasse 188, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>IBSG AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Helle Wohnung mit zentraler Lage sucht Mieter</t>
+          <t>Schöne Altbauwohnung wird frisch renoviert</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 70 m²</t>
+          <t>Wohnung • 3.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 70 m²</t>
+          <t>Wohnung • 3.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CHF 1’510.</t>
+          <t>CHF 1’500.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>CHF 259</t>
+          <t>CHF 225</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Unterer Graben 39, 9000 St. Gallen</t>
+          <t>9016 St. Gallen</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Brauerei Schützengarten AG</t>
+          <t>Fantelli Verwaltungen</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sanierte Altbauwohnung an zentraler Lage</t>
+          <t>4-Zimmer Stadtwohnung</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 93 m²</t>
+          <t>Wohnung • 4 Zi. • 91 m²</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 93 m²</t>
+          <t>Wohnung • 4 Zi. • 91 m²</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CHF 1’805.</t>
+          <t>CHF 1’536.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>CHF 233</t>
+          <t>CHF 203</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8450,126 +8442,126 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Fantelli Verwaltungen</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Zentrale 4.5-Zimmerwohnung mit Balkon und Schwedenofen</t>
+          <t>1.5 Zimmer Studio</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 90 m²</t>
+          <t>Wohnung • 1.5 Zi. • 33 m²</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 90 m²</t>
+          <t>Wohnung • 1.5 Zi. • 33 m²</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CHF 1’420.</t>
+          <t>CHF 808.</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>CHF 189</t>
+          <t>CHF 294</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Landhausstrasse 3, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PRETIUM AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>moderne 2½ Zimmer-Wohnung an zentrumsnaher Lage</t>
+          <t>Wohnung in St. Gallen - 2 min vom Bahnhof entfernt</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 54 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 54 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>CHF 1’350.</t>
+          <t>CHF 1’690.</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>CHF 300</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Feldbachstrasse 8, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Euro Estates GmbH</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Schöne, helle 3-Zimmerwohnung an zentraler Lage!</t>
+          <t>helle 4 Zimmerwohnung</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 62 m²</t>
+          <t>Wohnung • 4 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 62 m²</t>
+          <t>Wohnung • 4 Zi. • 92 m²</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>CHF 1’290.</t>
+          <t>CHF 1’300.</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>CHF 250</t>
+          <t>CHF 170</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
@@ -8581,27 +8573,27 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Schöne 3 1/2 Zimmer Wohnung</t>
+          <t>TOP Wohnung in der Nähe Kantonsspital</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 86 m²</t>
+          <t>Wohnung • 3.5 Zi. • 62 m²</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 86 m²</t>
+          <t>Wohnung • 3.5 Zi. • 62 m²</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CHF 2’430.</t>
+          <t>CHF 1’345.</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>CHF 339</t>
+          <t>CHF 260</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8618,116 +8610,116 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Wincasa AG</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Renovierte Wohnung an zentraler Lage zu vermieten!</t>
+          <t>Zentral gelegene Wohnung 1.5 ZW möbliert (auch ohne Möbel möglich)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 65 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Wohnung • 3 Zi. • 65 m²</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>CHF 1’590.</t>
+          <t>CHF 1’175.</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>CHF 294</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Lukasstrasse 2, 9008 St. Gallen</t>
+          <t>Langgasse 20, 9008 St. Gallen</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>cosyhome ag</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>St. Gallen - Zentrale und lässige Dach-Wohnung mit Galerie, Cheminée und Balkon!</t>
+          <t>Sonnige 4 1/2 Zimmer Genossenschaftswohnung</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Dachwohnung • 4.5 Zi. • 116 m²</t>
+          <t>Wohnung • 4.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Dachwohnung • 4.5 Zi. • 116 m²</t>
+          <t>Wohnung • 4.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>CHF 2’390.</t>
+          <t>CHF 1’175.</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>CHF 247</t>
+          <t>CHF 188</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Feldlistrasse 29a, 9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>GEMAG Gebrüder Müller AG</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Stilvolle Stadtwohnung im Eigentumsstandard</t>
+          <t>Mittlerer Rosenberg - ruhige Lage Nähe UNI</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 90 m²</t>
+          <t>Wohnung • 5 Zi.</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 90 m²</t>
+          <t>Wohnung • 5 Zi.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>CHF 2’090.</t>
+          <t>CHF 1’790.</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>CHF 279</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8737,86 +8729,86 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>icasa.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Dieses Haus AG</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>4.5-Zimmer-Wohnung</t>
+          <t>Wohnung an ruhiger und sonniger Lage</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 115 m²</t>
+          <t>Wohnung • 2 Zi. • 58 m²</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 115 m²</t>
+          <t>Wohnung • 2 Zi. • 58 m²</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CHF 2’080.</t>
+          <t>CHF 1’050.</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>CHF 218</t>
+          <t>CHF 217</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Intershop Management AG</t>
+          <t>aro immo ag</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Maisonette-Wohnung in St. Gallen</t>
+          <t>Wohnen an zentraler Lage</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Duplex • 5 Zi. • 109 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Duplex • 5 Zi. • 109 m²</t>
+          <t>Wohnung • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CHF 1’640.</t>
+          <t>CHF 1’190.</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>CHF 181</t>
+          <t>CHF 190</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9014 St. Gallen</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8828,195 +8820,195 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Romag Treuhand AG</t>
+          <t>Dafema AG</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>3.5 Zimmer Wohnung mit viel Charme</t>
+          <t>Stadtwohnung im modernen Neubau Wassergasse 53</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 75 m²</t>
+          <t>Wohnung • 4.5 Zi. • 132 m²</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 75 m²</t>
+          <t>Wohnung • 4.5 Zi. • 132 m²</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CHF 1’260.</t>
+          <t>CHF 3’260.</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>CHF 202</t>
+          <t>CHF 296</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Wassergasse 53, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Regimo St. Gallen AG</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Schöne Altbauwohnung wird frisch renoviert</t>
+          <t>Renovierte Jugendstilwohnung in St. Fiden - Nähe Kantonsspital</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 80 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 80 m²</t>
+          <t>Wohnung • 4 Zi.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>CHF 1’500.</t>
+          <t>CHF 1’720.</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>CHF 225</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>Scheibenackerstrasse 9, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>immoscout24.ch</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Fantelli Verwaltungen</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>4-Zimmer Stadtwohnung</t>
+          <t>«Neubau Maisonettewohnung mit Garten an Top Lage!»</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 91 m²</t>
+          <t>Duplex • 2.5 Zi. • 66 m²</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 91 m²</t>
+          <t>Duplex • 2.5 Zi. • 66 m²</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>CHF 1’536.</t>
+          <t>CHF 1’795.</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>CHF 203</t>
+          <t>CHF 326</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Seeblickstrasse 9, 9010 St. Gallen</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>urbanhome.ch</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Fantelli Verwaltungen</t>
+          <t>Ritter Immobilien-Treuhand AG</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1.5 Zimmer Studio</t>
+          <t>Im Zentrum von St. Gallen!</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 33 m²</t>
+          <t>Wohnung • 3 Zi. • 71 m²</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 33 m²</t>
+          <t>Wohnung • 3 Zi. • 71 m²</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>CHF 808.</t>
+          <t>CHF 1’327.</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>CHF 294</t>
+          <t>CHF 224</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Langgasse 41, 9008 St. Gallen</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>homegate.ch</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>IT3 St. Gallen AG</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Wohnung in St. Gallen - 2 min vom Bahnhof entfernt</t>
+          <t>Moderne 2.5-Zimmer-Wohnung</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi.</t>
+          <t>Wohnung • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>CHF 1’690.</t>
+          <t>CHF 1’360.</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -9038,32 +9030,32 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Adriana Pece</t>
+          <t>Homestay AG Schweiz</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>3.5 Wohnung</t>
+          <t>grosszügiges, möbliertes Studio mit eigenem Bad, Küche zur Allgemeinnutzung</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 105 m²</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Wohnung • 3.5 Zi. • 105 m²</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>CHF 2’100.</t>
+          <t>CHF 980.</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>CHF 240</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -9073,29 +9065,29 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>johannalagger</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>zentrumsnahe Wohnung in St. Gallen (befristet)</t>
+          <t>3-zimmer wohnung</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 53 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 53 m²</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -9105,7 +9097,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>CHF 238</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9115,76 +9107,76 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>homegate.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>fischer bm ag</t>
+          <t>Apfelberg ImmoService &amp; -Treuhand AG</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>schöne Wohnung mit Terrasse</t>
+          <t>Gemütliche 3.5-Zimmer-Wohnung</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Terrassenwohnung • 2 Zi. • 51 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Terrassenwohnung • 2 Zi. • 51 m²</t>
+          <t>Wohnung • 3.5 Zi.</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>CHF 1’300.</t>
+          <t>CHF 1’430.</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>CHF 306</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9008 St. Gallen</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Sproll &amp; Ramseyer AG</t>
+          <t>Apfelberg ImmoService &amp; -Treuhand AG</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Grosszügige 1.5-Zimmer-Wohnung mit sonnigem Balkon</t>
+          <t>Charmante 3.0 Zimmer-Wohnung mit Balkon</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi.</t>
+          <t>Wohnung • 3 Zi.</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>CHF 1’160.</t>
+          <t>CHF 1’499.</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -9194,44 +9186,44 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>Waldaustrasse, 9000 St. Gallen</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>newhome.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>cosyhome ag</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Geräumige 4.5-Zimmer-Wohnung in St. Gallen</t>
+          <t>St. Gallen-oberhalb der Altstadt</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi.</t>
+          <t>Wohnung • 3.5 Zi. • 80 m²</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>CHF 1’920.</t>
+          <t>CHF 1’690.</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>CHF 254</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9248,112 +9240,116 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Global Immobilien GmbH</t>
+          <t>—</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Singlewohnung mit Balkon - Erstbezug nach Kernsanierung</t>
+          <t>Neubau Maisonettewohnung</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 25 m²</t>
+          <t>Wohnung • 2.5 Zi. • 66 m²</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Wohnung • 1.5 Zi. • 25 m²</t>
+          <t>Wohnung • 2.5 Zi. • 66 m²</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>CHF 1’100.</t>
+          <t>CHF 1’795.</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>CHF 528</t>
+          <t>CHF 326</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>9000 St. Gallen</t>
+          <t>9010 St. Gallen</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>flatfox.ch</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>IBSG AG</t>
+          <t>AH Residenz Immobilien AG</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Helle Familienwohnung mit Sitzplatz</t>
+          <t>Dachwohnung mit Weitblick über die Stadt</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 102 m²</t>
+          <t>Penthouse • 2.5 Zi.</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 102 m²</t>
+          <t>Penthouse • 2.5 Zi.</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>CHF 1’870.</t>
+          <t>CHF 1’580.</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>CHF 220</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Grüningerweg 8, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>immoscout24.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
+          <t>Stadt St.Gallen Liegenschaften Immobilienbewirtschaftung</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>3.5 Zimmer-Wohnung im Quartier St.Georgen</t>
+        </is>
+      </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 32 m²</t>
+          <t>Penthouse • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Wohnung • 2.5 Zi. • 32 m²</t>
+          <t>Penthouse • 3.5 Zi. • 75 m²</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>CHF 1’190.</t>
+          <t>CHF 1’490.</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>CHF 446</t>
+          <t>CHF 240</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -9363,72 +9359,76 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>newhome.ch</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>VERIT Immobilien AG</t>
+          <t>Homestay AG Schweiz</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2-Zimmer-Wohnung an zentraler Lage</t>
+          <t>grosszügiges, möbliertes Studio mit eigenem Bad, Küche zur Allgemeinnutzung</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 61 m²</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Wohnung • 2 Zi. • 61 m²</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>CHF 1’400.</t>
+          <t>CHF 900.</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>CHF 275</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Vonwilstrasse 51, 9000 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
+          <t>Homestay AG Schweiz</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>grosszügiges, möbliertes Studio mit eigenem Bad, Küche zur Allgemeinnutzung</t>
+        </is>
+      </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi.</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>CHF 817.</t>
+          <t>CHF 885.</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -9438,44 +9438,44 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>9016 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>Homestay AG Schweiz</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Helle 4-Zimmerwohnung nahe Stadtpark</t>
+          <t>grosszügiges, möbliertes Studio mit eigenem Bad, Küche zur Allgemeinnutzung</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 80 m²</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Wohnung • 4 Zi. • 80 m²</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>CHF 1’390.</t>
+          <t>CHF 910.</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>CHF 209</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9485,49 +9485,49 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>flatfox.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Wincasa SA - Siège</t>
+          <t>Homestay AG Schweiz</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ihr Wohntraum in der Stadt - Langasse - Dufourstrasse</t>
+          <t>möblierters Studio mit eigenem Bad, Küche zur Allgemeinnutzung</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 110 m²</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Wohnung • 4.5 Zi. • 110 m²</t>
+          <t>Studio • 1 Zi.</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>CHF 1’890.</t>
+          <t>CHF 885.</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>CHF 206</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>9008 St. Gallen</t>
+          <t>9000 St. Gallen</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>immobilier.ch</t>
+          <t>icasa.ch</t>
         </is>
       </c>
     </row>
